--- a/EncounterRoutingNRotM/NRotM August 2024 - Platinum Healless Typeban v1.0.xlsx
+++ b/EncounterRoutingNRotM/NRotM August 2024 - Platinum Healless Typeban v1.0.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gil\OneDrive\Documents\Programming\pokemonDataTools\EncounterRoutingNRotM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2f30cbaf81810b05/Documents/Programming/pokemonDataTools/EncounterRoutingNRotM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC81FE4-5CCE-4303-970D-0617F9213FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{CBC81FE4-5CCE-4303-970D-0617F9213FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3CC2A7B2-D5BA-49A4-A988-3C4C81434B32}"/>
   <bookViews>
     <workbookView xWindow="51720" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3894,103 +3894,36 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="16" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3998,33 +3931,42 @@
     <xf numFmtId="0" fontId="24" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4036,13 +3978,56 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="17" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4051,111 +4036,126 @@
     <xf numFmtId="0" fontId="15" fillId="20" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="24" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="27" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="30" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="32" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="41" fillId="27" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="39" fillId="27" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="42" fillId="27" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="41" fillId="27" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="30" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="32" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5013,7 +5013,7 @@
       <c r="G1" s="122"/>
     </row>
     <row r="2" spans="1:7" ht="47.25" customHeight="1">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="126" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="122"/>
@@ -5024,7 +5024,7 @@
       <c r="G2" s="122"/>
     </row>
     <row r="3" spans="1:7" ht="29.25" customHeight="1">
-      <c r="A3" s="124" t="s">
+      <c r="A3" s="123" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="122"/>
@@ -5046,7 +5046,7 @@
       <c r="G4" s="122"/>
     </row>
     <row r="5" spans="1:7" ht="27" customHeight="1">
-      <c r="A5" s="125" t="s">
+      <c r="A5" s="124" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="122"/>
@@ -5057,7 +5057,7 @@
       <c r="G5" s="122"/>
     </row>
     <row r="6" spans="1:7" ht="27" customHeight="1">
-      <c r="A6" s="124" t="s">
+      <c r="A6" s="123" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="122"/>
@@ -5068,7 +5068,7 @@
       <c r="G6" s="122"/>
     </row>
     <row r="7" spans="1:7" ht="27" customHeight="1">
-      <c r="A7" s="124" t="s">
+      <c r="A7" s="123" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="122"/>
@@ -5079,7 +5079,7 @@
       <c r="G7" s="122"/>
     </row>
     <row r="8" spans="1:7" ht="45" customHeight="1">
-      <c r="A8" s="124" t="s">
+      <c r="A8" s="123" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="122"/>
@@ -5101,7 +5101,7 @@
       <c r="G9" s="122"/>
     </row>
     <row r="10" spans="1:7" ht="40.5" customHeight="1">
-      <c r="A10" s="124" t="s">
+      <c r="A10" s="123" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="122"/>
@@ -5112,7 +5112,7 @@
       <c r="G10" s="122"/>
     </row>
     <row r="11" spans="1:7" ht="41.25" customHeight="1">
-      <c r="A11" s="124" t="s">
+      <c r="A11" s="123" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="122"/>
@@ -5134,7 +5134,7 @@
       <c r="G12" s="122"/>
     </row>
     <row r="13" spans="1:7" ht="27" customHeight="1">
-      <c r="A13" s="125" t="s">
+      <c r="A13" s="124" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="122"/>
@@ -5145,7 +5145,7 @@
       <c r="G13" s="122"/>
     </row>
     <row r="14" spans="1:7" ht="33" customHeight="1">
-      <c r="A14" s="124" t="s">
+      <c r="A14" s="123" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="122"/>
@@ -5156,7 +5156,7 @@
       <c r="G14" s="122"/>
     </row>
     <row r="15" spans="1:7" ht="54" customHeight="1">
-      <c r="A15" s="124" t="s">
+      <c r="A15" s="123" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="122"/>
@@ -5178,7 +5178,7 @@
       <c r="G16" s="122"/>
     </row>
     <row r="17" spans="1:7" ht="27" customHeight="1">
-      <c r="A17" s="126" t="s">
+      <c r="A17" s="125" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="122"/>
@@ -5200,7 +5200,7 @@
       <c r="G18" s="122"/>
     </row>
     <row r="19" spans="1:7" ht="27" customHeight="1">
-      <c r="A19" s="124" t="s">
+      <c r="A19" s="123" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="122"/>
@@ -5212,6 +5212,16 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A17:G17"/>
     <mergeCell ref="A18:G18"/>
     <mergeCell ref="A19:G19"/>
     <mergeCell ref="A8:G8"/>
@@ -5221,16 +5231,6 @@
     <mergeCell ref="A12:G12"/>
     <mergeCell ref="A13:G13"/>
     <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A5:G5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -5247,7 +5247,9 @@
   </sheetPr>
   <dimension ref="A1:P71"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -5265,13 +5267,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="12.75">
-      <c r="A1" s="174" t="s">
+      <c r="A1" s="169" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="128"/>
       <c r="C1" s="128"/>
       <c r="D1" s="129"/>
-      <c r="E1" s="174" t="s">
+      <c r="E1" s="169" t="s">
         <v>20</v>
       </c>
       <c r="F1" s="128"/>
@@ -5281,7 +5283,7 @@
       <c r="J1" s="128"/>
       <c r="K1" s="128"/>
       <c r="L1" s="129"/>
-      <c r="M1" s="174" t="s">
+      <c r="M1" s="169" t="s">
         <v>21</v>
       </c>
       <c r="N1" s="128"/>
@@ -5289,46 +5291,46 @@
       <c r="P1" s="129"/>
     </row>
     <row r="2" spans="1:16" ht="12.75">
-      <c r="A2" s="130"/>
+      <c r="A2" s="148"/>
       <c r="B2" s="122"/>
       <c r="C2" s="122"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="130"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="148"/>
       <c r="F2" s="122"/>
       <c r="G2" s="122"/>
       <c r="H2" s="122"/>
       <c r="I2" s="122"/>
       <c r="J2" s="122"/>
       <c r="K2" s="122"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="130"/>
+      <c r="L2" s="154"/>
+      <c r="M2" s="148"/>
       <c r="N2" s="122"/>
       <c r="O2" s="122"/>
-      <c r="P2" s="131"/>
+      <c r="P2" s="154"/>
     </row>
     <row r="3" spans="1:16" ht="12.75">
-      <c r="A3" s="132"/>
-      <c r="B3" s="133"/>
-      <c r="C3" s="133"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="133"/>
-      <c r="G3" s="133"/>
-      <c r="H3" s="133"/>
-      <c r="I3" s="133"/>
-      <c r="J3" s="133"/>
-      <c r="K3" s="133"/>
-      <c r="L3" s="134"/>
-      <c r="M3" s="132"/>
-      <c r="N3" s="133"/>
-      <c r="O3" s="133"/>
-      <c r="P3" s="134"/>
+      <c r="A3" s="130"/>
+      <c r="B3" s="131"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="132"/>
+      <c r="M3" s="130"/>
+      <c r="N3" s="131"/>
+      <c r="O3" s="131"/>
+      <c r="P3" s="132"/>
     </row>
     <row r="4" spans="1:16" ht="97.5" customHeight="1">
-      <c r="A4" s="182" t="s">
+      <c r="A4" s="160" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="143"/>
+      <c r="B4" s="153"/>
       <c r="C4" s="1" t="e">
         <f t="shared" ref="C4:O4" ca="1" si="0">_xludf.image("http://play.pokemonshowdown.com/sprites/trainers/"&amp;LOWER(C5)&amp;".png")</f>
         <v>#NAME?</v>
@@ -5377,15 +5379,15 @@
         <f t="shared" ca="1" si="0"/>
         <v>#NAME?</v>
       </c>
-      <c r="O4" s="175" t="e">
+      <c r="O4" s="170" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#NAME?</v>
       </c>
-      <c r="P4" s="147"/>
-    </row>
-    <row r="5" spans="1:16" ht="13.15">
-      <c r="A5" s="144"/>
-      <c r="B5" s="131"/>
+      <c r="P4" s="142"/>
+    </row>
+    <row r="5" spans="1:16" ht="15.4">
+      <c r="A5" s="151"/>
+      <c r="B5" s="154"/>
       <c r="C5" s="5" t="s">
         <v>23</v>
       </c>
@@ -5422,14 +5424,14 @@
       <c r="N5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="176" t="s">
+      <c r="O5" s="171" t="s">
         <v>35</v>
       </c>
-      <c r="P5" s="140"/>
-    </row>
-    <row r="6" spans="1:16" ht="13.15">
-      <c r="A6" s="144"/>
-      <c r="B6" s="131"/>
+      <c r="P5" s="157"/>
+    </row>
+    <row r="6" spans="1:16" ht="15.4">
+      <c r="A6" s="151"/>
+      <c r="B6" s="154"/>
       <c r="C6" s="9">
         <v>14</v>
       </c>
@@ -5454,18 +5456,18 @@
       <c r="J6" s="11">
         <v>50</v>
       </c>
-      <c r="K6" s="177">
+      <c r="K6" s="155">
         <v>62</v>
       </c>
-      <c r="L6" s="139"/>
-      <c r="M6" s="139"/>
-      <c r="N6" s="139"/>
-      <c r="O6" s="139"/>
-      <c r="P6" s="140"/>
-    </row>
-    <row r="7" spans="1:16" ht="13.15">
-      <c r="A7" s="183"/>
-      <c r="B7" s="134"/>
+      <c r="L6" s="156"/>
+      <c r="M6" s="156"/>
+      <c r="N6" s="156"/>
+      <c r="O6" s="156"/>
+      <c r="P6" s="157"/>
+    </row>
+    <row r="7" spans="1:16" ht="15.4">
+      <c r="A7" s="152"/>
+      <c r="B7" s="132"/>
       <c r="C7" s="12" t="b">
         <v>0</v>
       </c>
@@ -5502,21 +5504,21 @@
       <c r="N7" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="O7" s="178" t="b">
-        <v>0</v>
-      </c>
-      <c r="P7" s="143"/>
+      <c r="O7" s="158" t="b">
+        <v>0</v>
+      </c>
+      <c r="P7" s="153"/>
     </row>
     <row r="8" spans="1:16" ht="12.75">
-      <c r="A8" s="127" t="s">
+      <c r="A8" s="161" t="s">
         <v>36</v>
       </c>
       <c r="B8" s="128"/>
-      <c r="C8" s="184">
+      <c r="C8" s="162">
         <f>('Points Calculation'!D10)</f>
         <v>0</v>
       </c>
-      <c r="D8" s="187" t="s">
+      <c r="D8" s="165" t="s">
         <v>37</v>
       </c>
       <c r="E8" s="128"/>
@@ -5524,7 +5526,7 @@
       <c r="G8" s="128"/>
       <c r="H8" s="128"/>
       <c r="I8" s="129"/>
-      <c r="J8" s="127" t="s">
+      <c r="J8" s="161" t="s">
         <v>8</v>
       </c>
       <c r="K8" s="128"/>
@@ -5535,47 +5537,47 @@
       <c r="P8" s="129"/>
     </row>
     <row r="9" spans="1:16" ht="12.75">
-      <c r="A9" s="130"/>
+      <c r="A9" s="148"/>
       <c r="B9" s="122"/>
-      <c r="C9" s="185"/>
-      <c r="D9" s="130"/>
+      <c r="C9" s="163"/>
+      <c r="D9" s="148"/>
       <c r="E9" s="122"/>
       <c r="F9" s="122"/>
       <c r="G9" s="122"/>
       <c r="H9" s="122"/>
-      <c r="I9" s="131"/>
-      <c r="J9" s="130"/>
+      <c r="I9" s="154"/>
+      <c r="J9" s="148"/>
       <c r="K9" s="122"/>
       <c r="L9" s="122"/>
       <c r="M9" s="122"/>
       <c r="N9" s="122"/>
       <c r="O9" s="122"/>
-      <c r="P9" s="131"/>
+      <c r="P9" s="154"/>
     </row>
     <row r="10" spans="1:16" ht="12.75">
-      <c r="A10" s="132"/>
-      <c r="B10" s="133"/>
-      <c r="C10" s="186"/>
-      <c r="D10" s="132"/>
-      <c r="E10" s="133"/>
-      <c r="F10" s="133"/>
-      <c r="G10" s="133"/>
-      <c r="H10" s="133"/>
-      <c r="I10" s="134"/>
-      <c r="J10" s="132"/>
-      <c r="K10" s="133"/>
-      <c r="L10" s="133"/>
-      <c r="M10" s="133"/>
-      <c r="N10" s="133"/>
-      <c r="O10" s="133"/>
-      <c r="P10" s="134"/>
+      <c r="A10" s="130"/>
+      <c r="B10" s="131"/>
+      <c r="C10" s="164"/>
+      <c r="D10" s="130"/>
+      <c r="E10" s="131"/>
+      <c r="F10" s="131"/>
+      <c r="G10" s="131"/>
+      <c r="H10" s="131"/>
+      <c r="I10" s="132"/>
+      <c r="J10" s="130"/>
+      <c r="K10" s="131"/>
+      <c r="L10" s="131"/>
+      <c r="M10" s="131"/>
+      <c r="N10" s="131"/>
+      <c r="O10" s="131"/>
+      <c r="P10" s="132"/>
     </row>
     <row r="11" spans="1:16" ht="26.25" customHeight="1">
-      <c r="A11" s="188" t="s">
+      <c r="A11" s="166" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="136"/>
-      <c r="C11" s="137"/>
+      <c r="B11" s="167"/>
+      <c r="C11" s="168"/>
       <c r="D11" s="14" t="str">
         <f>'Team &amp; Encounters'!B5</f>
         <v/>
@@ -5603,64 +5605,64 @@
       <c r="J11" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="K11" s="135" t="s">
+      <c r="K11" s="192" t="s">
         <v>40</v>
       </c>
-      <c r="L11" s="136"/>
-      <c r="M11" s="135" t="s">
+      <c r="L11" s="167"/>
+      <c r="M11" s="192" t="s">
         <v>41</v>
       </c>
-      <c r="N11" s="136"/>
-      <c r="O11" s="136"/>
-      <c r="P11" s="137"/>
+      <c r="N11" s="167"/>
+      <c r="O11" s="167"/>
+      <c r="P11" s="168"/>
     </row>
     <row r="12" spans="1:16" ht="26.25" customHeight="1">
-      <c r="A12" s="181" t="s">
+      <c r="A12" s="143" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="163"/>
+      <c r="B12" s="134"/>
       <c r="C12" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="D12" s="189" t="e">
+      <c r="D12" s="146" t="e">
         <f ca="1">'Team &amp; Encounters'!B6</f>
         <v>#NAME?</v>
       </c>
-      <c r="E12" s="180"/>
-      <c r="F12" s="179" t="e">
+      <c r="E12" s="147"/>
+      <c r="F12" s="150" t="e">
         <f ca="1">'Team &amp; Encounters'!D6</f>
         <v>#NAME?</v>
       </c>
-      <c r="G12" s="180"/>
-      <c r="H12" s="179" t="e">
+      <c r="G12" s="147"/>
+      <c r="H12" s="150" t="e">
         <f ca="1">'Team &amp; Encounters'!F6</f>
         <v>#NAME?</v>
       </c>
-      <c r="I12" s="143"/>
-      <c r="J12" s="138" t="s">
+      <c r="I12" s="153"/>
+      <c r="J12" s="193" t="s">
         <v>43</v>
       </c>
-      <c r="K12" s="139"/>
-      <c r="L12" s="139"/>
-      <c r="M12" s="139"/>
-      <c r="N12" s="139"/>
-      <c r="O12" s="139"/>
-      <c r="P12" s="140"/>
+      <c r="K12" s="156"/>
+      <c r="L12" s="156"/>
+      <c r="M12" s="156"/>
+      <c r="N12" s="156"/>
+      <c r="O12" s="156"/>
+      <c r="P12" s="157"/>
     </row>
     <row r="13" spans="1:16" ht="26.25" customHeight="1">
-      <c r="A13" s="181" t="s">
+      <c r="A13" s="143" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="163"/>
+      <c r="B13" s="134"/>
       <c r="C13" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="D13" s="130"/>
-      <c r="E13" s="168"/>
-      <c r="F13" s="144"/>
-      <c r="G13" s="168"/>
-      <c r="H13" s="144"/>
-      <c r="I13" s="131"/>
+      <c r="D13" s="148"/>
+      <c r="E13" s="136"/>
+      <c r="F13" s="151"/>
+      <c r="G13" s="136"/>
+      <c r="H13" s="151"/>
+      <c r="I13" s="154"/>
       <c r="J13" s="20"/>
       <c r="K13" s="21" t="s">
         <v>45</v>
@@ -5668,25 +5670,25 @@
       <c r="L13" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="M13" s="141"/>
-      <c r="N13" s="142"/>
-      <c r="O13" s="142"/>
-      <c r="P13" s="143"/>
+      <c r="M13" s="180"/>
+      <c r="N13" s="181"/>
+      <c r="O13" s="181"/>
+      <c r="P13" s="153"/>
     </row>
     <row r="14" spans="1:16" ht="26.25" customHeight="1">
-      <c r="A14" s="181" t="s">
+      <c r="A14" s="143" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="163"/>
+      <c r="B14" s="134"/>
       <c r="C14" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="D14" s="130"/>
-      <c r="E14" s="168"/>
-      <c r="F14" s="144"/>
-      <c r="G14" s="168"/>
-      <c r="H14" s="144"/>
-      <c r="I14" s="131"/>
+      <c r="D14" s="148"/>
+      <c r="E14" s="136"/>
+      <c r="F14" s="151"/>
+      <c r="G14" s="136"/>
+      <c r="H14" s="151"/>
+      <c r="I14" s="154"/>
       <c r="J14" s="20"/>
       <c r="K14" s="21" t="s">
         <v>48</v>
@@ -5694,25 +5696,25 @@
       <c r="L14" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="M14" s="144"/>
+      <c r="M14" s="151"/>
       <c r="N14" s="122"/>
       <c r="O14" s="122"/>
-      <c r="P14" s="131"/>
+      <c r="P14" s="154"/>
     </row>
     <row r="15" spans="1:16" ht="26.25" customHeight="1">
-      <c r="A15" s="181" t="s">
+      <c r="A15" s="143" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="163"/>
+      <c r="B15" s="134"/>
       <c r="C15" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="D15" s="130"/>
-      <c r="E15" s="168"/>
-      <c r="F15" s="144"/>
-      <c r="G15" s="168"/>
-      <c r="H15" s="144"/>
-      <c r="I15" s="131"/>
+      <c r="D15" s="148"/>
+      <c r="E15" s="136"/>
+      <c r="F15" s="151"/>
+      <c r="G15" s="136"/>
+      <c r="H15" s="151"/>
+      <c r="I15" s="154"/>
       <c r="J15" s="20"/>
       <c r="K15" s="21" t="s">
         <v>51</v>
@@ -5720,25 +5722,25 @@
       <c r="L15" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="M15" s="144"/>
+      <c r="M15" s="151"/>
       <c r="N15" s="122"/>
       <c r="O15" s="122"/>
-      <c r="P15" s="131"/>
+      <c r="P15" s="154"/>
     </row>
     <row r="16" spans="1:16" ht="26.25" customHeight="1">
-      <c r="A16" s="181" t="s">
+      <c r="A16" s="143" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="163"/>
+      <c r="B16" s="134"/>
       <c r="C16" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="D16" s="169"/>
-      <c r="E16" s="170"/>
-      <c r="F16" s="145"/>
-      <c r="G16" s="170"/>
-      <c r="H16" s="145"/>
-      <c r="I16" s="147"/>
+      <c r="D16" s="137"/>
+      <c r="E16" s="139"/>
+      <c r="F16" s="159"/>
+      <c r="G16" s="139"/>
+      <c r="H16" s="159"/>
+      <c r="I16" s="142"/>
       <c r="J16" s="20"/>
       <c r="K16" s="21" t="s">
         <v>54</v>
@@ -5746,16 +5748,16 @@
       <c r="L16" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="M16" s="145"/>
-      <c r="N16" s="146"/>
-      <c r="O16" s="146"/>
-      <c r="P16" s="147"/>
+      <c r="M16" s="159"/>
+      <c r="N16" s="138"/>
+      <c r="O16" s="138"/>
+      <c r="P16" s="142"/>
     </row>
     <row r="17" spans="1:16" ht="26.25" customHeight="1">
-      <c r="A17" s="181" t="s">
+      <c r="A17" s="143" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="163"/>
+      <c r="B17" s="134"/>
       <c r="C17" s="19" t="b">
         <v>0</v>
       </c>
@@ -5783,39 +5785,39 @@
         <f>'Team &amp; Encounters'!G12</f>
         <v/>
       </c>
-      <c r="J17" s="148" t="s">
+      <c r="J17" s="189" t="s">
         <v>57</v>
       </c>
-      <c r="K17" s="139"/>
-      <c r="L17" s="139"/>
-      <c r="M17" s="139"/>
-      <c r="N17" s="139"/>
-      <c r="O17" s="139"/>
-      <c r="P17" s="140"/>
+      <c r="K17" s="156"/>
+      <c r="L17" s="156"/>
+      <c r="M17" s="156"/>
+      <c r="N17" s="156"/>
+      <c r="O17" s="156"/>
+      <c r="P17" s="157"/>
     </row>
     <row r="18" spans="1:16" ht="26.25" customHeight="1">
-      <c r="A18" s="190" t="s">
+      <c r="A18" s="144" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="159"/>
+      <c r="B18" s="145"/>
       <c r="C18" s="27" t="b">
         <v>0</v>
       </c>
-      <c r="D18" s="189" t="e">
+      <c r="D18" s="146" t="e">
         <f ca="1">'Team &amp; Encounters'!B13</f>
         <v>#NAME?</v>
       </c>
-      <c r="E18" s="180"/>
-      <c r="F18" s="179" t="e">
+      <c r="E18" s="147"/>
+      <c r="F18" s="150" t="e">
         <f ca="1">'Team &amp; Encounters'!D13</f>
         <v>#NAME?</v>
       </c>
-      <c r="G18" s="180"/>
-      <c r="H18" s="179" t="e">
+      <c r="G18" s="147"/>
+      <c r="H18" s="150" t="e">
         <f ca="1">'Team &amp; Encounters'!F13</f>
         <v>#NAME?</v>
       </c>
-      <c r="I18" s="143"/>
+      <c r="I18" s="153"/>
       <c r="J18" s="20"/>
       <c r="K18" s="28" t="s">
         <v>59</v>
@@ -5823,21 +5825,21 @@
       <c r="L18" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="M18" s="141"/>
-      <c r="N18" s="142"/>
-      <c r="O18" s="142"/>
-      <c r="P18" s="143"/>
+      <c r="M18" s="180"/>
+      <c r="N18" s="181"/>
+      <c r="O18" s="181"/>
+      <c r="P18" s="153"/>
     </row>
     <row r="19" spans="1:16" ht="26.25" customHeight="1">
       <c r="A19" s="30"/>
       <c r="B19" s="30"/>
       <c r="C19" s="30"/>
-      <c r="D19" s="130"/>
-      <c r="E19" s="168"/>
-      <c r="F19" s="144"/>
-      <c r="G19" s="168"/>
-      <c r="H19" s="144"/>
-      <c r="I19" s="131"/>
+      <c r="D19" s="148"/>
+      <c r="E19" s="136"/>
+      <c r="F19" s="151"/>
+      <c r="G19" s="136"/>
+      <c r="H19" s="151"/>
+      <c r="I19" s="154"/>
       <c r="J19" s="20"/>
       <c r="K19" s="21" t="s">
         <v>61</v>
@@ -5845,23 +5847,23 @@
       <c r="L19" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="M19" s="144"/>
+      <c r="M19" s="151"/>
       <c r="N19" s="122"/>
       <c r="O19" s="122"/>
-      <c r="P19" s="131"/>
+      <c r="P19" s="154"/>
     </row>
     <row r="20" spans="1:16" ht="26.25" customHeight="1">
-      <c r="A20" s="161" t="s">
+      <c r="A20" s="174" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="136"/>
-      <c r="C20" s="137"/>
-      <c r="D20" s="130"/>
-      <c r="E20" s="168"/>
-      <c r="F20" s="144"/>
-      <c r="G20" s="168"/>
-      <c r="H20" s="144"/>
-      <c r="I20" s="131"/>
+      <c r="B20" s="167"/>
+      <c r="C20" s="168"/>
+      <c r="D20" s="148"/>
+      <c r="E20" s="136"/>
+      <c r="F20" s="151"/>
+      <c r="G20" s="136"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="154"/>
       <c r="J20" s="20"/>
       <c r="K20" s="28" t="s">
         <v>64</v>
@@ -5869,25 +5871,25 @@
       <c r="L20" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="M20" s="144"/>
+      <c r="M20" s="151"/>
       <c r="N20" s="122"/>
       <c r="O20" s="122"/>
-      <c r="P20" s="131"/>
+      <c r="P20" s="154"/>
     </row>
     <row r="21" spans="1:16" ht="26.25" customHeight="1">
-      <c r="A21" s="162" t="s">
+      <c r="A21" s="133" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="163"/>
+      <c r="B21" s="134"/>
       <c r="C21" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="D21" s="130"/>
-      <c r="E21" s="168"/>
-      <c r="F21" s="144"/>
-      <c r="G21" s="168"/>
-      <c r="H21" s="144"/>
-      <c r="I21" s="131"/>
+      <c r="D21" s="148"/>
+      <c r="E21" s="136"/>
+      <c r="F21" s="151"/>
+      <c r="G21" s="136"/>
+      <c r="H21" s="151"/>
+      <c r="I21" s="154"/>
       <c r="J21" s="20"/>
       <c r="K21" s="28" t="s">
         <v>67</v>
@@ -5895,44 +5897,44 @@
       <c r="L21" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="M21" s="144"/>
+      <c r="M21" s="151"/>
       <c r="N21" s="122"/>
       <c r="O21" s="122"/>
-      <c r="P21" s="131"/>
+      <c r="P21" s="154"/>
     </row>
     <row r="22" spans="1:16" ht="26.25" customHeight="1">
-      <c r="A22" s="162" t="s">
+      <c r="A22" s="133" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="163"/>
+      <c r="B22" s="134"/>
       <c r="C22" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="D22" s="132"/>
-      <c r="E22" s="173"/>
-      <c r="F22" s="183"/>
-      <c r="G22" s="173"/>
-      <c r="H22" s="183"/>
-      <c r="I22" s="134"/>
-      <c r="J22" s="149" t="s">
+      <c r="D22" s="130"/>
+      <c r="E22" s="149"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="149"/>
+      <c r="H22" s="152"/>
+      <c r="I22" s="132"/>
+      <c r="J22" s="190" t="s">
         <v>70</v>
       </c>
-      <c r="K22" s="139"/>
-      <c r="L22" s="139"/>
-      <c r="M22" s="139"/>
-      <c r="N22" s="139"/>
-      <c r="O22" s="139"/>
-      <c r="P22" s="140"/>
+      <c r="K22" s="156"/>
+      <c r="L22" s="156"/>
+      <c r="M22" s="156"/>
+      <c r="N22" s="156"/>
+      <c r="O22" s="156"/>
+      <c r="P22" s="157"/>
     </row>
     <row r="23" spans="1:16" ht="26.25" customHeight="1">
-      <c r="A23" s="162" t="s">
+      <c r="A23" s="133" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="163"/>
+      <c r="B23" s="134"/>
       <c r="C23" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="D23" s="191" t="s">
+      <c r="D23" s="127" t="s">
         <v>72</v>
       </c>
       <c r="E23" s="128"/>
@@ -5947,25 +5949,25 @@
       <c r="L23" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="M23" s="153"/>
-      <c r="N23" s="142"/>
-      <c r="O23" s="142"/>
-      <c r="P23" s="143"/>
+      <c r="M23" s="182"/>
+      <c r="N23" s="181"/>
+      <c r="O23" s="181"/>
+      <c r="P23" s="153"/>
     </row>
     <row r="24" spans="1:16" ht="26.25" customHeight="1">
-      <c r="A24" s="162" t="s">
+      <c r="A24" s="133" t="s">
         <v>75</v>
       </c>
-      <c r="B24" s="163"/>
+      <c r="B24" s="134"/>
       <c r="C24" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="D24" s="132"/>
-      <c r="E24" s="133"/>
-      <c r="F24" s="133"/>
-      <c r="G24" s="133"/>
-      <c r="H24" s="133"/>
-      <c r="I24" s="134"/>
+      <c r="D24" s="130"/>
+      <c r="E24" s="131"/>
+      <c r="F24" s="131"/>
+      <c r="G24" s="131"/>
+      <c r="H24" s="131"/>
+      <c r="I24" s="132"/>
       <c r="J24" s="20"/>
       <c r="K24" s="21" t="s">
         <v>76</v>
@@ -5976,26 +5978,26 @@
       <c r="M24" s="122"/>
       <c r="N24" s="122"/>
       <c r="O24" s="122"/>
-      <c r="P24" s="131"/>
+      <c r="P24" s="154"/>
     </row>
     <row r="25" spans="1:16" ht="26.25" customHeight="1">
-      <c r="A25" s="164" t="s">
+      <c r="A25" s="175" t="s">
         <v>78</v>
       </c>
-      <c r="B25" s="159"/>
+      <c r="B25" s="145"/>
       <c r="C25" s="32" t="b">
         <v>0</v>
       </c>
-      <c r="D25" s="167" t="s">
+      <c r="D25" s="135" t="s">
         <v>79</v>
       </c>
       <c r="E25" s="122"/>
       <c r="F25" s="122"/>
-      <c r="G25" s="168"/>
-      <c r="H25" s="171" t="s">
+      <c r="G25" s="136"/>
+      <c r="H25" s="140" t="s">
         <v>80</v>
       </c>
-      <c r="I25" s="172" t="b">
+      <c r="I25" s="141" t="b">
         <v>0</v>
       </c>
       <c r="J25" s="20"/>
@@ -6005,47 +6007,47 @@
       <c r="L25" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="M25" s="146"/>
-      <c r="N25" s="146"/>
-      <c r="O25" s="146"/>
-      <c r="P25" s="147"/>
+      <c r="M25" s="138"/>
+      <c r="N25" s="138"/>
+      <c r="O25" s="138"/>
+      <c r="P25" s="142"/>
     </row>
     <row r="26" spans="1:16" ht="26.25" customHeight="1">
       <c r="A26" s="30"/>
       <c r="B26" s="30"/>
       <c r="C26" s="33"/>
-      <c r="D26" s="169"/>
-      <c r="E26" s="146"/>
-      <c r="F26" s="146"/>
-      <c r="G26" s="170"/>
-      <c r="H26" s="170"/>
-      <c r="I26" s="147"/>
-      <c r="J26" s="192" t="s">
+      <c r="D26" s="137"/>
+      <c r="E26" s="138"/>
+      <c r="F26" s="138"/>
+      <c r="G26" s="139"/>
+      <c r="H26" s="139"/>
+      <c r="I26" s="142"/>
+      <c r="J26" s="187" t="s">
         <v>83</v>
       </c>
-      <c r="K26" s="139"/>
-      <c r="L26" s="139"/>
-      <c r="M26" s="139"/>
-      <c r="N26" s="139"/>
-      <c r="O26" s="139"/>
-      <c r="P26" s="140"/>
+      <c r="K26" s="156"/>
+      <c r="L26" s="156"/>
+      <c r="M26" s="156"/>
+      <c r="N26" s="156"/>
+      <c r="O26" s="156"/>
+      <c r="P26" s="157"/>
     </row>
     <row r="27" spans="1:16" ht="26.25" customHeight="1">
-      <c r="A27" s="165" t="s">
+      <c r="A27" s="176" t="s">
         <v>84</v>
       </c>
-      <c r="B27" s="136"/>
-      <c r="C27" s="137"/>
-      <c r="D27" s="167" t="s">
+      <c r="B27" s="167"/>
+      <c r="C27" s="168"/>
+      <c r="D27" s="135" t="s">
         <v>85</v>
       </c>
       <c r="E27" s="122"/>
       <c r="F27" s="122"/>
-      <c r="G27" s="168"/>
-      <c r="H27" s="171" t="s">
+      <c r="G27" s="136"/>
+      <c r="H27" s="140" t="s">
         <v>86</v>
       </c>
-      <c r="I27" s="172" t="b">
+      <c r="I27" s="141" t="b">
         <v>0</v>
       </c>
       <c r="J27" s="20"/>
@@ -6055,25 +6057,25 @@
       <c r="L27" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="M27" s="154"/>
-      <c r="N27" s="142"/>
-      <c r="O27" s="142"/>
-      <c r="P27" s="143"/>
+      <c r="M27" s="183"/>
+      <c r="N27" s="181"/>
+      <c r="O27" s="181"/>
+      <c r="P27" s="153"/>
     </row>
     <row r="28" spans="1:16" ht="26.25" customHeight="1">
-      <c r="A28" s="166" t="s">
+      <c r="A28" s="177" t="s">
         <v>89</v>
       </c>
-      <c r="B28" s="163"/>
+      <c r="B28" s="134"/>
       <c r="C28" s="34" t="b">
         <v>0</v>
       </c>
-      <c r="D28" s="169"/>
-      <c r="E28" s="146"/>
-      <c r="F28" s="146"/>
-      <c r="G28" s="170"/>
-      <c r="H28" s="170"/>
-      <c r="I28" s="147"/>
+      <c r="D28" s="137"/>
+      <c r="E28" s="138"/>
+      <c r="F28" s="138"/>
+      <c r="G28" s="139"/>
+      <c r="H28" s="139"/>
+      <c r="I28" s="142"/>
       <c r="J28" s="20"/>
       <c r="K28" s="21" t="s">
         <v>90</v>
@@ -6084,26 +6086,26 @@
       <c r="M28" s="122"/>
       <c r="N28" s="122"/>
       <c r="O28" s="122"/>
-      <c r="P28" s="131"/>
+      <c r="P28" s="154"/>
     </row>
     <row r="29" spans="1:16" ht="26.25" customHeight="1">
-      <c r="A29" s="166" t="s">
+      <c r="A29" s="177" t="s">
         <v>92</v>
       </c>
-      <c r="B29" s="163"/>
+      <c r="B29" s="134"/>
       <c r="C29" s="34" t="b">
         <v>0</v>
       </c>
-      <c r="D29" s="167" t="s">
+      <c r="D29" s="135" t="s">
         <v>93</v>
       </c>
       <c r="E29" s="122"/>
       <c r="F29" s="122"/>
-      <c r="G29" s="168"/>
-      <c r="H29" s="171" t="s">
+      <c r="G29" s="136"/>
+      <c r="H29" s="140" t="s">
         <v>94</v>
       </c>
-      <c r="I29" s="172" t="b">
+      <c r="I29" s="141" t="b">
         <v>0</v>
       </c>
       <c r="J29" s="20"/>
@@ -6116,22 +6118,22 @@
       <c r="M29" s="122"/>
       <c r="N29" s="122"/>
       <c r="O29" s="122"/>
-      <c r="P29" s="131"/>
+      <c r="P29" s="154"/>
     </row>
     <row r="30" spans="1:16" ht="26.25" customHeight="1">
-      <c r="A30" s="158" t="s">
+      <c r="A30" s="173" t="s">
         <v>97</v>
       </c>
-      <c r="B30" s="159"/>
+      <c r="B30" s="145"/>
       <c r="C30" s="35" t="b">
         <v>0</v>
       </c>
-      <c r="D30" s="169"/>
-      <c r="E30" s="146"/>
-      <c r="F30" s="146"/>
-      <c r="G30" s="170"/>
-      <c r="H30" s="170"/>
-      <c r="I30" s="147"/>
+      <c r="D30" s="137"/>
+      <c r="E30" s="138"/>
+      <c r="F30" s="138"/>
+      <c r="G30" s="139"/>
+      <c r="H30" s="139"/>
+      <c r="I30" s="142"/>
       <c r="J30" s="20"/>
       <c r="K30" s="21" t="s">
         <v>98</v>
@@ -6142,22 +6144,22 @@
       <c r="M30" s="122"/>
       <c r="N30" s="122"/>
       <c r="O30" s="122"/>
-      <c r="P30" s="131"/>
+      <c r="P30" s="154"/>
     </row>
     <row r="31" spans="1:16" ht="26.25" customHeight="1">
-      <c r="A31" s="160"/>
+      <c r="A31" s="172"/>
       <c r="B31" s="122"/>
       <c r="C31" s="122"/>
-      <c r="D31" s="167" t="s">
+      <c r="D31" s="135" t="s">
         <v>100</v>
       </c>
       <c r="E31" s="122"/>
       <c r="F31" s="122"/>
-      <c r="G31" s="168"/>
-      <c r="H31" s="171" t="s">
+      <c r="G31" s="136"/>
+      <c r="H31" s="140" t="s">
         <v>101</v>
       </c>
-      <c r="I31" s="172" t="b">
+      <c r="I31" s="141" t="b">
         <v>0</v>
       </c>
       <c r="J31" s="20"/>
@@ -6167,45 +6169,45 @@
       <c r="L31" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="M31" s="146"/>
-      <c r="N31" s="146"/>
-      <c r="O31" s="146"/>
-      <c r="P31" s="147"/>
+      <c r="M31" s="138"/>
+      <c r="N31" s="138"/>
+      <c r="O31" s="138"/>
+      <c r="P31" s="142"/>
     </row>
     <row r="32" spans="1:16" ht="26.25" customHeight="1">
       <c r="A32" s="122"/>
       <c r="B32" s="122"/>
       <c r="C32" s="122"/>
-      <c r="D32" s="169"/>
-      <c r="E32" s="146"/>
-      <c r="F32" s="146"/>
-      <c r="G32" s="170"/>
-      <c r="H32" s="170"/>
-      <c r="I32" s="147"/>
-      <c r="J32" s="193" t="s">
+      <c r="D32" s="137"/>
+      <c r="E32" s="138"/>
+      <c r="F32" s="138"/>
+      <c r="G32" s="139"/>
+      <c r="H32" s="139"/>
+      <c r="I32" s="142"/>
+      <c r="J32" s="188" t="s">
         <v>104</v>
       </c>
-      <c r="K32" s="139"/>
-      <c r="L32" s="139"/>
-      <c r="M32" s="139"/>
-      <c r="N32" s="139"/>
-      <c r="O32" s="139"/>
-      <c r="P32" s="140"/>
+      <c r="K32" s="156"/>
+      <c r="L32" s="156"/>
+      <c r="M32" s="156"/>
+      <c r="N32" s="156"/>
+      <c r="O32" s="156"/>
+      <c r="P32" s="157"/>
     </row>
     <row r="33" spans="1:16" ht="26.25" customHeight="1">
       <c r="A33" s="122"/>
       <c r="B33" s="122"/>
       <c r="C33" s="122"/>
-      <c r="D33" s="167" t="s">
+      <c r="D33" s="135" t="s">
         <v>105</v>
       </c>
       <c r="E33" s="122"/>
       <c r="F33" s="122"/>
-      <c r="G33" s="168"/>
-      <c r="H33" s="171" t="s">
+      <c r="G33" s="136"/>
+      <c r="H33" s="140" t="s">
         <v>106</v>
       </c>
-      <c r="I33" s="172" t="b">
+      <c r="I33" s="141" t="b">
         <v>0</v>
       </c>
       <c r="J33" s="20"/>
@@ -6215,21 +6217,21 @@
       <c r="L33" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="M33" s="153"/>
-      <c r="N33" s="142"/>
-      <c r="O33" s="142"/>
-      <c r="P33" s="143"/>
+      <c r="M33" s="182"/>
+      <c r="N33" s="181"/>
+      <c r="O33" s="181"/>
+      <c r="P33" s="153"/>
     </row>
     <row r="34" spans="1:16" ht="26.25" customHeight="1">
       <c r="A34" s="122"/>
       <c r="B34" s="122"/>
       <c r="C34" s="122"/>
-      <c r="D34" s="169"/>
-      <c r="E34" s="146"/>
-      <c r="F34" s="146"/>
-      <c r="G34" s="170"/>
-      <c r="H34" s="170"/>
-      <c r="I34" s="147"/>
+      <c r="D34" s="137"/>
+      <c r="E34" s="138"/>
+      <c r="F34" s="138"/>
+      <c r="G34" s="139"/>
+      <c r="H34" s="139"/>
+      <c r="I34" s="142"/>
       <c r="J34" s="20"/>
       <c r="K34" s="21" t="s">
         <v>109</v>
@@ -6240,22 +6242,22 @@
       <c r="M34" s="122"/>
       <c r="N34" s="122"/>
       <c r="O34" s="122"/>
-      <c r="P34" s="131"/>
+      <c r="P34" s="154"/>
     </row>
     <row r="35" spans="1:16" ht="26.25" customHeight="1">
       <c r="A35" s="122"/>
       <c r="B35" s="122"/>
       <c r="C35" s="122"/>
-      <c r="D35" s="167" t="s">
+      <c r="D35" s="135" t="s">
         <v>110</v>
       </c>
       <c r="E35" s="122"/>
       <c r="F35" s="122"/>
-      <c r="G35" s="168"/>
-      <c r="H35" s="171" t="s">
+      <c r="G35" s="136"/>
+      <c r="H35" s="140" t="s">
         <v>111</v>
       </c>
-      <c r="I35" s="172" t="b">
+      <c r="I35" s="141" t="b">
         <v>0</v>
       </c>
       <c r="J35" s="20"/>
@@ -6268,18 +6270,18 @@
       <c r="M35" s="122"/>
       <c r="N35" s="122"/>
       <c r="O35" s="122"/>
-      <c r="P35" s="131"/>
+      <c r="P35" s="154"/>
     </row>
     <row r="36" spans="1:16" ht="26.25" customHeight="1">
       <c r="A36" s="122"/>
       <c r="B36" s="122"/>
       <c r="C36" s="122"/>
-      <c r="D36" s="169"/>
-      <c r="E36" s="146"/>
-      <c r="F36" s="146"/>
-      <c r="G36" s="170"/>
-      <c r="H36" s="170"/>
-      <c r="I36" s="147"/>
+      <c r="D36" s="137"/>
+      <c r="E36" s="138"/>
+      <c r="F36" s="138"/>
+      <c r="G36" s="139"/>
+      <c r="H36" s="139"/>
+      <c r="I36" s="142"/>
       <c r="J36" s="20"/>
       <c r="K36" s="21" t="s">
         <v>114</v>
@@ -6290,22 +6292,22 @@
       <c r="M36" s="122"/>
       <c r="N36" s="122"/>
       <c r="O36" s="122"/>
-      <c r="P36" s="131"/>
+      <c r="P36" s="154"/>
     </row>
     <row r="37" spans="1:16" ht="26.25" customHeight="1">
       <c r="A37" s="122"/>
       <c r="B37" s="122"/>
       <c r="C37" s="122"/>
-      <c r="D37" s="167" t="s">
+      <c r="D37" s="135" t="s">
         <v>116</v>
       </c>
       <c r="E37" s="122"/>
       <c r="F37" s="122"/>
-      <c r="G37" s="168"/>
-      <c r="H37" s="171" t="s">
+      <c r="G37" s="136"/>
+      <c r="H37" s="140" t="s">
         <v>117</v>
       </c>
-      <c r="I37" s="172" t="b">
+      <c r="I37" s="141" t="b">
         <v>0</v>
       </c>
       <c r="J37" s="20"/>
@@ -6318,42 +6320,42 @@
       <c r="M37" s="122"/>
       <c r="N37" s="122"/>
       <c r="O37" s="122"/>
-      <c r="P37" s="131"/>
+      <c r="P37" s="154"/>
     </row>
     <row r="38" spans="1:16" ht="26.25" customHeight="1">
       <c r="A38" s="122"/>
       <c r="B38" s="122"/>
       <c r="C38" s="122"/>
-      <c r="D38" s="169"/>
-      <c r="E38" s="146"/>
-      <c r="F38" s="146"/>
-      <c r="G38" s="170"/>
-      <c r="H38" s="170"/>
-      <c r="I38" s="147"/>
-      <c r="J38" s="155" t="s">
+      <c r="D38" s="137"/>
+      <c r="E38" s="138"/>
+      <c r="F38" s="138"/>
+      <c r="G38" s="139"/>
+      <c r="H38" s="139"/>
+      <c r="I38" s="142"/>
+      <c r="J38" s="184" t="s">
         <v>119</v>
       </c>
-      <c r="K38" s="139"/>
-      <c r="L38" s="139"/>
-      <c r="M38" s="139"/>
-      <c r="N38" s="139"/>
-      <c r="O38" s="139"/>
-      <c r="P38" s="140"/>
+      <c r="K38" s="156"/>
+      <c r="L38" s="156"/>
+      <c r="M38" s="156"/>
+      <c r="N38" s="156"/>
+      <c r="O38" s="156"/>
+      <c r="P38" s="157"/>
     </row>
     <row r="39" spans="1:16" ht="26.25" customHeight="1">
       <c r="A39" s="122"/>
       <c r="B39" s="122"/>
       <c r="C39" s="122"/>
-      <c r="D39" s="167" t="s">
+      <c r="D39" s="135" t="s">
         <v>120</v>
       </c>
       <c r="E39" s="122"/>
       <c r="F39" s="122"/>
-      <c r="G39" s="168"/>
-      <c r="H39" s="171" t="s">
+      <c r="G39" s="136"/>
+      <c r="H39" s="140" t="s">
         <v>121</v>
       </c>
-      <c r="I39" s="172" t="b">
+      <c r="I39" s="141" t="b">
         <v>0</v>
       </c>
       <c r="J39" s="20"/>
@@ -6363,21 +6365,21 @@
       <c r="L39" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="M39" s="156"/>
+      <c r="M39" s="185"/>
       <c r="N39" s="122"/>
       <c r="O39" s="122"/>
-      <c r="P39" s="131"/>
+      <c r="P39" s="154"/>
     </row>
     <row r="40" spans="1:16" ht="26.25" customHeight="1">
       <c r="A40" s="122"/>
       <c r="B40" s="122"/>
       <c r="C40" s="122"/>
-      <c r="D40" s="169"/>
-      <c r="E40" s="146"/>
-      <c r="F40" s="146"/>
-      <c r="G40" s="170"/>
-      <c r="H40" s="170"/>
-      <c r="I40" s="147"/>
+      <c r="D40" s="137"/>
+      <c r="E40" s="138"/>
+      <c r="F40" s="138"/>
+      <c r="G40" s="139"/>
+      <c r="H40" s="139"/>
+      <c r="I40" s="142"/>
       <c r="J40" s="20"/>
       <c r="K40" s="21" t="s">
         <v>124</v>
@@ -6388,22 +6390,22 @@
       <c r="M40" s="122"/>
       <c r="N40" s="122"/>
       <c r="O40" s="122"/>
-      <c r="P40" s="131"/>
+      <c r="P40" s="154"/>
     </row>
     <row r="41" spans="1:16" ht="26.25" customHeight="1">
       <c r="A41" s="122"/>
       <c r="B41" s="122"/>
       <c r="C41" s="122"/>
-      <c r="D41" s="167" t="s">
+      <c r="D41" s="135" t="s">
         <v>126</v>
       </c>
       <c r="E41" s="122"/>
       <c r="F41" s="122"/>
-      <c r="G41" s="168"/>
-      <c r="H41" s="171" t="s">
+      <c r="G41" s="136"/>
+      <c r="H41" s="140" t="s">
         <v>127</v>
       </c>
-      <c r="I41" s="172" t="b">
+      <c r="I41" s="141" t="b">
         <v>0</v>
       </c>
       <c r="J41" s="20"/>
@@ -6416,18 +6418,18 @@
       <c r="M41" s="122"/>
       <c r="N41" s="122"/>
       <c r="O41" s="122"/>
-      <c r="P41" s="131"/>
+      <c r="P41" s="154"/>
     </row>
     <row r="42" spans="1:16" ht="26.25" customHeight="1">
       <c r="A42" s="122"/>
       <c r="B42" s="122"/>
       <c r="C42" s="122"/>
-      <c r="D42" s="132"/>
-      <c r="E42" s="133"/>
-      <c r="F42" s="133"/>
-      <c r="G42" s="173"/>
-      <c r="H42" s="173"/>
-      <c r="I42" s="134"/>
+      <c r="D42" s="130"/>
+      <c r="E42" s="131"/>
+      <c r="F42" s="131"/>
+      <c r="G42" s="149"/>
+      <c r="H42" s="149"/>
+      <c r="I42" s="132"/>
       <c r="J42" s="20"/>
       <c r="K42" s="21" t="s">
         <v>130</v>
@@ -6435,30 +6437,30 @@
       <c r="L42" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="M42" s="146"/>
-      <c r="N42" s="146"/>
-      <c r="O42" s="146"/>
-      <c r="P42" s="147"/>
+      <c r="M42" s="138"/>
+      <c r="N42" s="138"/>
+      <c r="O42" s="138"/>
+      <c r="P42" s="142"/>
     </row>
     <row r="43" spans="1:16" ht="26.25" customHeight="1">
       <c r="A43" s="122"/>
       <c r="B43" s="122"/>
       <c r="C43" s="122"/>
-      <c r="D43" s="160"/>
+      <c r="D43" s="172"/>
       <c r="E43" s="122"/>
       <c r="F43" s="122"/>
       <c r="G43" s="122"/>
       <c r="H43" s="122"/>
       <c r="I43" s="122"/>
-      <c r="J43" s="157" t="s">
+      <c r="J43" s="186" t="s">
         <v>132</v>
       </c>
-      <c r="K43" s="139"/>
-      <c r="L43" s="139"/>
-      <c r="M43" s="139"/>
-      <c r="N43" s="139"/>
-      <c r="O43" s="139"/>
-      <c r="P43" s="140"/>
+      <c r="K43" s="156"/>
+      <c r="L43" s="156"/>
+      <c r="M43" s="156"/>
+      <c r="N43" s="156"/>
+      <c r="O43" s="156"/>
+      <c r="P43" s="157"/>
     </row>
     <row r="44" spans="1:16" ht="26.25" customHeight="1">
       <c r="A44" s="122"/>
@@ -6477,10 +6479,10 @@
       <c r="L44" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="M44" s="150"/>
+      <c r="M44" s="179"/>
       <c r="N44" s="122"/>
       <c r="O44" s="122"/>
-      <c r="P44" s="131"/>
+      <c r="P44" s="154"/>
     </row>
     <row r="45" spans="1:16" ht="26.25" customHeight="1">
       <c r="A45" s="122"/>
@@ -6502,7 +6504,7 @@
       <c r="M45" s="122"/>
       <c r="N45" s="122"/>
       <c r="O45" s="122"/>
-      <c r="P45" s="131"/>
+      <c r="P45" s="154"/>
     </row>
     <row r="46" spans="1:16" ht="26.25" customHeight="1">
       <c r="A46" s="122"/>
@@ -6524,7 +6526,7 @@
       <c r="M46" s="122"/>
       <c r="N46" s="122"/>
       <c r="O46" s="122"/>
-      <c r="P46" s="131"/>
+      <c r="P46" s="154"/>
     </row>
     <row r="47" spans="1:16" ht="26.25" customHeight="1">
       <c r="A47" s="122"/>
@@ -6543,10 +6545,10 @@
       <c r="L47" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="M47" s="146"/>
-      <c r="N47" s="146"/>
-      <c r="O47" s="146"/>
-      <c r="P47" s="147"/>
+      <c r="M47" s="138"/>
+      <c r="N47" s="138"/>
+      <c r="O47" s="138"/>
+      <c r="P47" s="142"/>
     </row>
     <row r="48" spans="1:16" ht="26.25" customHeight="1">
       <c r="A48" s="122"/>
@@ -6558,15 +6560,15 @@
       <c r="G48" s="122"/>
       <c r="H48" s="122"/>
       <c r="I48" s="122"/>
-      <c r="J48" s="151" t="s">
+      <c r="J48" s="191" t="s">
         <v>139</v>
       </c>
-      <c r="K48" s="139"/>
-      <c r="L48" s="139"/>
-      <c r="M48" s="139"/>
-      <c r="N48" s="139"/>
-      <c r="O48" s="139"/>
-      <c r="P48" s="140"/>
+      <c r="K48" s="156"/>
+      <c r="L48" s="156"/>
+      <c r="M48" s="156"/>
+      <c r="N48" s="156"/>
+      <c r="O48" s="156"/>
+      <c r="P48" s="157"/>
     </row>
     <row r="49" spans="1:16" ht="26.25" customHeight="1">
       <c r="A49" s="122"/>
@@ -6585,10 +6587,10 @@
       <c r="L49" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="M49" s="150"/>
+      <c r="M49" s="179"/>
       <c r="N49" s="122"/>
       <c r="O49" s="122"/>
-      <c r="P49" s="131"/>
+      <c r="P49" s="154"/>
     </row>
     <row r="50" spans="1:16" ht="26.25" customHeight="1">
       <c r="A50" s="122"/>
@@ -6610,7 +6612,7 @@
       <c r="M50" s="122"/>
       <c r="N50" s="122"/>
       <c r="O50" s="122"/>
-      <c r="P50" s="131"/>
+      <c r="P50" s="154"/>
     </row>
     <row r="51" spans="1:16" ht="26.25" customHeight="1">
       <c r="A51" s="122"/>
@@ -6632,7 +6634,7 @@
       <c r="M51" s="122"/>
       <c r="N51" s="122"/>
       <c r="O51" s="122"/>
-      <c r="P51" s="131"/>
+      <c r="P51" s="154"/>
     </row>
     <row r="52" spans="1:16" ht="26.25" customHeight="1">
       <c r="A52" s="122"/>
@@ -6654,7 +6656,7 @@
       <c r="M52" s="122"/>
       <c r="N52" s="122"/>
       <c r="O52" s="122"/>
-      <c r="P52" s="131"/>
+      <c r="P52" s="154"/>
     </row>
     <row r="53" spans="1:16" ht="26.25" customHeight="1">
       <c r="A53" s="122"/>
@@ -6676,7 +6678,7 @@
       <c r="M53" s="122"/>
       <c r="N53" s="122"/>
       <c r="O53" s="122"/>
-      <c r="P53" s="131"/>
+      <c r="P53" s="154"/>
     </row>
     <row r="54" spans="1:16" ht="26.25" customHeight="1">
       <c r="A54" s="122"/>
@@ -6698,7 +6700,7 @@
       <c r="M54" s="122"/>
       <c r="N54" s="122"/>
       <c r="O54" s="122"/>
-      <c r="P54" s="131"/>
+      <c r="P54" s="154"/>
     </row>
     <row r="55" spans="1:16" ht="26.25" customHeight="1">
       <c r="A55" s="122"/>
@@ -6720,7 +6722,7 @@
       <c r="M55" s="122"/>
       <c r="N55" s="122"/>
       <c r="O55" s="122"/>
-      <c r="P55" s="131"/>
+      <c r="P55" s="154"/>
     </row>
     <row r="56" spans="1:16" ht="26.25" customHeight="1">
       <c r="A56" s="122"/>
@@ -6732,15 +6734,15 @@
       <c r="G56" s="122"/>
       <c r="H56" s="122"/>
       <c r="I56" s="122"/>
-      <c r="J56" s="152" t="s">
+      <c r="J56" s="178" t="s">
         <v>150</v>
       </c>
-      <c r="K56" s="139"/>
-      <c r="L56" s="139"/>
-      <c r="M56" s="139"/>
-      <c r="N56" s="139"/>
-      <c r="O56" s="139"/>
-      <c r="P56" s="140"/>
+      <c r="K56" s="156"/>
+      <c r="L56" s="156"/>
+      <c r="M56" s="156"/>
+      <c r="N56" s="156"/>
+      <c r="O56" s="156"/>
+      <c r="P56" s="157"/>
     </row>
     <row r="57" spans="1:16" ht="26.25" customHeight="1">
       <c r="A57" s="122"/>
@@ -6759,10 +6761,10 @@
       <c r="L57" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="M57" s="150"/>
+      <c r="M57" s="179"/>
       <c r="N57" s="122"/>
       <c r="O57" s="122"/>
-      <c r="P57" s="131"/>
+      <c r="P57" s="154"/>
     </row>
     <row r="58" spans="1:16" ht="26.25" customHeight="1">
       <c r="A58" s="122"/>
@@ -6784,7 +6786,7 @@
       <c r="M58" s="122"/>
       <c r="N58" s="122"/>
       <c r="O58" s="122"/>
-      <c r="P58" s="131"/>
+      <c r="P58" s="154"/>
     </row>
     <row r="59" spans="1:16" ht="26.25" customHeight="1">
       <c r="A59" s="122"/>
@@ -6806,7 +6808,7 @@
       <c r="M59" s="122"/>
       <c r="N59" s="122"/>
       <c r="O59" s="122"/>
-      <c r="P59" s="131"/>
+      <c r="P59" s="154"/>
     </row>
     <row r="60" spans="1:16" ht="26.25" customHeight="1">
       <c r="A60" s="122"/>
@@ -6828,7 +6830,7 @@
       <c r="M60" s="122"/>
       <c r="N60" s="122"/>
       <c r="O60" s="122"/>
-      <c r="P60" s="131"/>
+      <c r="P60" s="154"/>
     </row>
     <row r="61" spans="1:16" ht="26.25" customHeight="1">
       <c r="A61" s="122"/>
@@ -6850,7 +6852,7 @@
       <c r="M61" s="122"/>
       <c r="N61" s="122"/>
       <c r="O61" s="122"/>
-      <c r="P61" s="131"/>
+      <c r="P61" s="154"/>
     </row>
     <row r="62" spans="1:16" ht="26.25" customHeight="1">
       <c r="A62" s="122"/>
@@ -6872,7 +6874,7 @@
       <c r="M62" s="122"/>
       <c r="N62" s="122"/>
       <c r="O62" s="122"/>
-      <c r="P62" s="131"/>
+      <c r="P62" s="154"/>
     </row>
     <row r="63" spans="1:16" ht="26.25" customHeight="1">
       <c r="A63" s="122"/>
@@ -6894,7 +6896,7 @@
       <c r="M63" s="122"/>
       <c r="N63" s="122"/>
       <c r="O63" s="122"/>
-      <c r="P63" s="131"/>
+      <c r="P63" s="154"/>
     </row>
     <row r="64" spans="1:16" ht="26.25" customHeight="1">
       <c r="A64" s="122"/>
@@ -6913,10 +6915,10 @@
       <c r="L64" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="M64" s="150"/>
+      <c r="M64" s="179"/>
       <c r="N64" s="122"/>
       <c r="O64" s="122"/>
-      <c r="P64" s="131"/>
+      <c r="P64" s="154"/>
     </row>
     <row r="65" spans="1:16" ht="26.25" customHeight="1">
       <c r="A65" s="122"/>
@@ -6938,7 +6940,7 @@
       <c r="M65" s="122"/>
       <c r="N65" s="122"/>
       <c r="O65" s="122"/>
-      <c r="P65" s="131"/>
+      <c r="P65" s="154"/>
     </row>
     <row r="66" spans="1:16" ht="26.25" customHeight="1">
       <c r="A66" s="122"/>
@@ -6960,7 +6962,7 @@
       <c r="M66" s="122"/>
       <c r="N66" s="122"/>
       <c r="O66" s="122"/>
-      <c r="P66" s="131"/>
+      <c r="P66" s="154"/>
     </row>
     <row r="67" spans="1:16" ht="26.25" customHeight="1">
       <c r="A67" s="122"/>
@@ -6982,7 +6984,7 @@
       <c r="M67" s="122"/>
       <c r="N67" s="122"/>
       <c r="O67" s="122"/>
-      <c r="P67" s="131"/>
+      <c r="P67" s="154"/>
     </row>
     <row r="68" spans="1:16" ht="26.25" customHeight="1">
       <c r="A68" s="122"/>
@@ -7004,7 +7006,7 @@
       <c r="M68" s="122"/>
       <c r="N68" s="122"/>
       <c r="O68" s="122"/>
-      <c r="P68" s="131"/>
+      <c r="P68" s="154"/>
     </row>
     <row r="69" spans="1:16" ht="26.25" customHeight="1">
       <c r="A69" s="122"/>
@@ -7026,7 +7028,7 @@
       <c r="M69" s="122"/>
       <c r="N69" s="122"/>
       <c r="O69" s="122"/>
-      <c r="P69" s="131"/>
+      <c r="P69" s="154"/>
     </row>
     <row r="70" spans="1:16" ht="26.25" customHeight="1">
       <c r="A70" s="122"/>
@@ -7045,10 +7047,10 @@
       <c r="L70" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="M70" s="133"/>
-      <c r="N70" s="133"/>
-      <c r="O70" s="133"/>
-      <c r="P70" s="134"/>
+      <c r="M70" s="131"/>
+      <c r="N70" s="131"/>
+      <c r="O70" s="131"/>
+      <c r="P70" s="132"/>
     </row>
     <row r="71" spans="1:16" ht="26.25" customHeight="1">
       <c r="A71" s="122"/>
@@ -7070,17 +7072,67 @@
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="D23:I24"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="D25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="D18:E22"/>
-    <mergeCell ref="F18:G22"/>
-    <mergeCell ref="H18:I22"/>
-    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="M13:P16"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="M44:P47"/>
+    <mergeCell ref="J48:P48"/>
+    <mergeCell ref="M49:P55"/>
+    <mergeCell ref="J56:P56"/>
+    <mergeCell ref="M57:P63"/>
+    <mergeCell ref="M64:P70"/>
+    <mergeCell ref="J71:P71"/>
+    <mergeCell ref="M18:P21"/>
+    <mergeCell ref="M23:P25"/>
+    <mergeCell ref="M27:P31"/>
+    <mergeCell ref="M33:P37"/>
+    <mergeCell ref="J38:P38"/>
+    <mergeCell ref="M39:P42"/>
+    <mergeCell ref="J43:P43"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:C71"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="D29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="D31:G32"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="D39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="D41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="D43:I71"/>
+    <mergeCell ref="D33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="D35:G36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="D37:G38"/>
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="E1:L3"/>
+    <mergeCell ref="M1:P3"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O5:P5"/>
     <mergeCell ref="K6:P6"/>
     <mergeCell ref="O7:P7"/>
     <mergeCell ref="F12:G16"/>
@@ -7096,68 +7148,18 @@
     <mergeCell ref="D12:E16"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="E1:L3"/>
-    <mergeCell ref="M1:P3"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="D41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="D43:I71"/>
-    <mergeCell ref="D33:G34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="D35:G36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="D37:G38"/>
-    <mergeCell ref="D31:G32"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="D39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="D27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="D29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:C71"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="J56:P56"/>
-    <mergeCell ref="M57:P63"/>
-    <mergeCell ref="M64:P70"/>
-    <mergeCell ref="J71:P71"/>
-    <mergeCell ref="M18:P21"/>
-    <mergeCell ref="M23:P25"/>
-    <mergeCell ref="M27:P31"/>
-    <mergeCell ref="M33:P37"/>
-    <mergeCell ref="J38:P38"/>
-    <mergeCell ref="M39:P42"/>
-    <mergeCell ref="J43:P43"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="M44:P47"/>
-    <mergeCell ref="J48:P48"/>
-    <mergeCell ref="M49:P55"/>
     <mergeCell ref="J8:P10"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="M13:P16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="D18:E22"/>
+    <mergeCell ref="F18:G22"/>
+    <mergeCell ref="H18:I22"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="D23:I24"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="D25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
   </mergeCells>
   <conditionalFormatting sqref="C4:C7">
     <cfRule type="expression" dxfId="28" priority="4">
@@ -7301,8 +7303,8 @@
   </sheetPr>
   <dimension ref="A1:X67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="J52" sqref="J52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1"/>
@@ -7347,12 +7349,12 @@
     </row>
     <row r="2" spans="1:24" ht="27" customHeight="1">
       <c r="A2" s="30"/>
-      <c r="B2" s="197" t="s">
+      <c r="B2" s="199" t="s">
         <v>168</v>
       </c>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="180"/>
+      <c r="C2" s="181"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="147"/>
       <c r="F2" s="30"/>
       <c r="G2" s="30"/>
       <c r="H2" s="30"/>
@@ -7375,55 +7377,55 @@
     </row>
     <row r="3" spans="1:24" ht="27" customHeight="1">
       <c r="A3" s="30"/>
-      <c r="B3" s="145"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="170"/>
+      <c r="B3" s="159"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="139"/>
       <c r="F3" s="30"/>
       <c r="G3" s="30"/>
       <c r="H3" s="30"/>
-      <c r="I3" s="196" t="s">
+      <c r="I3" s="195" t="s">
         <v>169</v>
       </c>
-      <c r="J3" s="198" t="s">
+      <c r="J3" s="194" t="s">
         <v>170</v>
       </c>
-      <c r="K3" s="180"/>
-      <c r="L3" s="196" t="s">
+      <c r="K3" s="147"/>
+      <c r="L3" s="195" t="s">
         <v>171</v>
       </c>
-      <c r="M3" s="196" t="s">
+      <c r="M3" s="195" t="s">
         <v>172</v>
       </c>
-      <c r="N3" s="196" t="s">
+      <c r="N3" s="195" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="196" t="s">
+      <c r="O3" s="195" t="s">
         <v>173</v>
       </c>
-      <c r="P3" s="196" t="s">
+      <c r="P3" s="195" t="s">
         <v>174</v>
       </c>
-      <c r="Q3" s="194" t="s">
+      <c r="Q3" s="200" t="s">
         <v>175</v>
       </c>
-      <c r="R3" s="194" t="s">
+      <c r="R3" s="200" t="s">
         <v>176</v>
       </c>
-      <c r="S3" s="194" t="s">
+      <c r="S3" s="200" t="s">
         <v>177</v>
       </c>
-      <c r="T3" s="194" t="s">
+      <c r="T3" s="200" t="s">
         <v>178</v>
       </c>
-      <c r="U3" s="194" t="s">
+      <c r="U3" s="200" t="s">
         <v>179</v>
       </c>
-      <c r="V3" s="194"/>
-      <c r="W3" s="194" t="s">
+      <c r="V3" s="200"/>
+      <c r="W3" s="200" t="s">
         <v>173</v>
       </c>
-      <c r="X3" s="194" t="s">
+      <c r="X3" s="200" t="s">
         <v>180</v>
       </c>
     </row>
@@ -7436,24 +7438,24 @@
       <c r="F4" s="41"/>
       <c r="G4" s="41"/>
       <c r="H4" s="30"/>
-      <c r="I4" s="195"/>
-      <c r="J4" s="145"/>
-      <c r="K4" s="170"/>
-      <c r="L4" s="195"/>
-      <c r="M4" s="195"/>
-      <c r="N4" s="195"/>
-      <c r="O4" s="195"/>
-      <c r="P4" s="195"/>
-      <c r="Q4" s="195"/>
-      <c r="R4" s="195"/>
-      <c r="S4" s="195"/>
-      <c r="T4" s="195"/>
-      <c r="U4" s="195"/>
-      <c r="V4" s="195"/>
-      <c r="W4" s="195"/>
-      <c r="X4" s="195"/>
-    </row>
-    <row r="5" spans="1:24" ht="14.25">
+      <c r="I4" s="196"/>
+      <c r="J4" s="159"/>
+      <c r="K4" s="139"/>
+      <c r="L4" s="196"/>
+      <c r="M4" s="196"/>
+      <c r="N4" s="196"/>
+      <c r="O4" s="196"/>
+      <c r="P4" s="196"/>
+      <c r="Q4" s="196"/>
+      <c r="R4" s="196"/>
+      <c r="S4" s="196"/>
+      <c r="T4" s="196"/>
+      <c r="U4" s="196"/>
+      <c r="V4" s="196"/>
+      <c r="W4" s="196"/>
+      <c r="X4" s="196"/>
+    </row>
+    <row r="5" spans="1:24" ht="21">
       <c r="A5" s="30"/>
       <c r="B5" s="25" t="str">
         <f>IFERROR(VLOOKUP("T1",$Q$5:$T$66,4,0),"")</f>
@@ -7528,23 +7530,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="14.25">
+    <row r="6" spans="1:24" ht="21">
       <c r="A6" s="30"/>
-      <c r="B6" s="179" t="e">
+      <c r="B6" s="150" t="e">
         <f ca="1">_xludf.image("http://play.pokemonshowdown.com/sprites/gen5/"&amp;LOWER(B5)&amp;".png", 1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="C6" s="180"/>
-      <c r="D6" s="179" t="e">
+      <c r="C6" s="147"/>
+      <c r="D6" s="150" t="e">
         <f ca="1">_xludf.image("http://play.pokemonshowdown.com/sprites/gen5/"&amp;LOWER(D5)&amp;".png", 1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E6" s="180"/>
-      <c r="F6" s="179" t="e">
+      <c r="E6" s="147"/>
+      <c r="F6" s="150" t="e">
         <f ca="1">_xludf.image("http://play.pokemonshowdown.com/sprites/gen5/"&amp;LOWER(F5)&amp;".png", 1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="G6" s="180"/>
+      <c r="G6" s="147"/>
       <c r="H6" s="51"/>
       <c r="I6" s="42" t="s">
         <v>135</v>
@@ -7592,14 +7594,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="14.25">
+    <row r="7" spans="1:24" ht="21">
       <c r="A7" s="30"/>
-      <c r="B7" s="144"/>
-      <c r="C7" s="168"/>
-      <c r="D7" s="144"/>
-      <c r="E7" s="168"/>
-      <c r="F7" s="144"/>
-      <c r="G7" s="168"/>
+      <c r="B7" s="151"/>
+      <c r="C7" s="136"/>
+      <c r="D7" s="151"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="151"/>
+      <c r="G7" s="136"/>
       <c r="H7" s="51"/>
       <c r="I7" s="42" t="s">
         <v>183</v>
@@ -7647,14 +7649,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="14.25">
+    <row r="8" spans="1:24" ht="21">
       <c r="A8" s="30"/>
-      <c r="B8" s="144"/>
-      <c r="C8" s="168"/>
-      <c r="D8" s="144"/>
-      <c r="E8" s="168"/>
-      <c r="F8" s="144"/>
-      <c r="G8" s="168"/>
+      <c r="B8" s="151"/>
+      <c r="C8" s="136"/>
+      <c r="D8" s="151"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="151"/>
+      <c r="G8" s="136"/>
       <c r="H8" s="51"/>
       <c r="I8" s="42" t="s">
         <v>46</v>
@@ -7702,14 +7704,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="14.25">
+    <row r="9" spans="1:24" ht="21">
       <c r="A9" s="30"/>
-      <c r="B9" s="144"/>
-      <c r="C9" s="168"/>
-      <c r="D9" s="144"/>
-      <c r="E9" s="168"/>
-      <c r="F9" s="144"/>
-      <c r="G9" s="168"/>
+      <c r="B9" s="151"/>
+      <c r="C9" s="136"/>
+      <c r="D9" s="151"/>
+      <c r="E9" s="136"/>
+      <c r="F9" s="151"/>
+      <c r="G9" s="136"/>
       <c r="H9" s="51"/>
       <c r="I9" s="42" t="s">
         <v>184</v>
@@ -7757,14 +7759,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="14.25">
+    <row r="10" spans="1:24" ht="21">
       <c r="A10" s="30"/>
-      <c r="B10" s="144"/>
-      <c r="C10" s="168"/>
-      <c r="D10" s="144"/>
-      <c r="E10" s="168"/>
-      <c r="F10" s="144"/>
-      <c r="G10" s="168"/>
+      <c r="B10" s="151"/>
+      <c r="C10" s="136"/>
+      <c r="D10" s="151"/>
+      <c r="E10" s="136"/>
+      <c r="F10" s="151"/>
+      <c r="G10" s="136"/>
       <c r="H10" s="51"/>
       <c r="I10" s="42" t="s">
         <v>49</v>
@@ -7812,14 +7814,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="14.25">
+    <row r="11" spans="1:24" ht="21">
       <c r="A11" s="30"/>
-      <c r="B11" s="144"/>
-      <c r="C11" s="168"/>
-      <c r="D11" s="144"/>
-      <c r="E11" s="168"/>
-      <c r="F11" s="144"/>
-      <c r="G11" s="168"/>
+      <c r="B11" s="151"/>
+      <c r="C11" s="136"/>
+      <c r="D11" s="151"/>
+      <c r="E11" s="136"/>
+      <c r="F11" s="151"/>
+      <c r="G11" s="136"/>
       <c r="H11" s="51"/>
       <c r="I11" s="42" t="s">
         <v>185</v>
@@ -7867,7 +7869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="14.25">
+    <row r="12" spans="1:24" ht="21">
       <c r="A12" s="30"/>
       <c r="B12" s="25" t="str">
         <f>IFERROR(VLOOKUP("T4",$Q$5:$T$66,4,0),"")</f>
@@ -7940,23 +7942,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="14.25">
+    <row r="13" spans="1:24" ht="21">
       <c r="A13" s="30"/>
-      <c r="B13" s="179" t="e">
+      <c r="B13" s="150" t="e">
         <f ca="1">_xludf.image("http://play.pokemonshowdown.com/sprites/gen5/"&amp;LOWER(B12)&amp;".png", 1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="C13" s="180"/>
-      <c r="D13" s="179" t="e">
+      <c r="C13" s="147"/>
+      <c r="D13" s="150" t="e">
         <f ca="1">_xludf.image("http://play.pokemonshowdown.com/sprites/gen5/"&amp;LOWER(D12)&amp;".png", 1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E13" s="180"/>
-      <c r="F13" s="179" t="e">
+      <c r="E13" s="147"/>
+      <c r="F13" s="150" t="e">
         <f ca="1">_xludf.image("http://play.pokemonshowdown.com/sprites/gen5/"&amp;LOWER(F12)&amp;".png", 1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="G13" s="180"/>
+      <c r="G13" s="147"/>
       <c r="H13" s="51"/>
       <c r="I13" s="42" t="s">
         <v>186</v>
@@ -8004,14 +8006,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="14.25">
+    <row r="14" spans="1:24" ht="21">
       <c r="A14" s="30"/>
-      <c r="B14" s="144"/>
-      <c r="C14" s="168"/>
-      <c r="D14" s="144"/>
-      <c r="E14" s="168"/>
-      <c r="F14" s="144"/>
-      <c r="G14" s="168"/>
+      <c r="B14" s="151"/>
+      <c r="C14" s="136"/>
+      <c r="D14" s="151"/>
+      <c r="E14" s="136"/>
+      <c r="F14" s="151"/>
+      <c r="G14" s="136"/>
       <c r="H14" s="51"/>
       <c r="I14" s="53" t="s">
         <v>55</v>
@@ -8063,14 +8065,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="14.25">
+    <row r="15" spans="1:24" ht="21">
       <c r="A15" s="30"/>
-      <c r="B15" s="144"/>
-      <c r="C15" s="168"/>
-      <c r="D15" s="144"/>
-      <c r="E15" s="168"/>
-      <c r="F15" s="144"/>
-      <c r="G15" s="168"/>
+      <c r="B15" s="151"/>
+      <c r="C15" s="136"/>
+      <c r="D15" s="151"/>
+      <c r="E15" s="136"/>
+      <c r="F15" s="151"/>
+      <c r="G15" s="136"/>
       <c r="H15" s="51"/>
       <c r="I15" s="42" t="s">
         <v>82</v>
@@ -8118,14 +8120,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="14.25">
+    <row r="16" spans="1:24" ht="21">
       <c r="A16" s="30"/>
-      <c r="B16" s="144"/>
-      <c r="C16" s="168"/>
-      <c r="D16" s="144"/>
-      <c r="E16" s="168"/>
-      <c r="F16" s="144"/>
-      <c r="G16" s="168"/>
+      <c r="B16" s="151"/>
+      <c r="C16" s="136"/>
+      <c r="D16" s="151"/>
+      <c r="E16" s="136"/>
+      <c r="F16" s="151"/>
+      <c r="G16" s="136"/>
       <c r="H16" s="51"/>
       <c r="I16" s="42" t="s">
         <v>189</v>
@@ -8173,14 +8175,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="14.25">
+    <row r="17" spans="1:24" ht="21">
       <c r="A17" s="30"/>
-      <c r="B17" s="144"/>
-      <c r="C17" s="168"/>
-      <c r="D17" s="144"/>
-      <c r="E17" s="168"/>
-      <c r="F17" s="144"/>
-      <c r="G17" s="168"/>
+      <c r="B17" s="151"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="151"/>
+      <c r="E17" s="136"/>
+      <c r="F17" s="151"/>
+      <c r="G17" s="136"/>
       <c r="H17" s="51"/>
       <c r="I17" s="42" t="s">
         <v>190</v>
@@ -8228,14 +8230,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="14.25">
+    <row r="18" spans="1:24" ht="21">
       <c r="A18" s="30"/>
-      <c r="B18" s="144"/>
-      <c r="C18" s="168"/>
-      <c r="D18" s="144"/>
-      <c r="E18" s="168"/>
-      <c r="F18" s="144"/>
-      <c r="G18" s="168"/>
+      <c r="B18" s="151"/>
+      <c r="C18" s="136"/>
+      <c r="D18" s="151"/>
+      <c r="E18" s="136"/>
+      <c r="F18" s="151"/>
+      <c r="G18" s="136"/>
       <c r="H18" s="51"/>
       <c r="I18" s="42" t="s">
         <v>62</v>
@@ -8283,7 +8285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="14.25">
+    <row r="19" spans="1:24" ht="21">
       <c r="A19" s="30"/>
       <c r="B19" s="59"/>
       <c r="C19" s="59"/>
@@ -8338,12 +8340,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="14.25">
+    <row r="20" spans="1:24" ht="21">
       <c r="A20" s="30"/>
-      <c r="B20" s="199" t="s">
+      <c r="B20" s="198" t="s">
         <v>191</v>
       </c>
-      <c r="C20" s="163"/>
+      <c r="C20" s="134"/>
       <c r="D20" s="30"/>
       <c r="E20" s="30"/>
       <c r="F20" s="30"/>
@@ -8395,7 +8397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="14.25">
+    <row r="21" spans="1:24" ht="21">
       <c r="A21" s="30"/>
       <c r="B21" s="61" t="s">
         <v>193</v>
@@ -8460,7 +8462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="14.25">
+    <row r="22" spans="1:24" ht="21">
       <c r="A22" s="30"/>
       <c r="B22" s="61" t="s">
         <v>196</v>
@@ -8529,7 +8531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="14.25">
+    <row r="23" spans="1:24" ht="21">
       <c r="A23" s="30"/>
       <c r="B23" s="61" t="s">
         <v>199</v>
@@ -8594,19 +8596,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="14.25">
+    <row r="24" spans="1:24" ht="21">
       <c r="A24" s="30"/>
-      <c r="B24" s="199" t="s">
+      <c r="B24" s="198" t="s">
         <v>202</v>
       </c>
-      <c r="C24" s="163"/>
+      <c r="C24" s="134"/>
       <c r="D24" s="64" t="s">
         <v>174</v>
       </c>
-      <c r="E24" s="199" t="s">
+      <c r="E24" s="198" t="s">
         <v>173</v>
       </c>
-      <c r="F24" s="163"/>
+      <c r="F24" s="134"/>
       <c r="G24" s="64" t="s">
         <v>179</v>
       </c>
@@ -8657,26 +8659,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="14.25">
+    <row r="25" spans="1:24" ht="21">
       <c r="A25" s="30"/>
       <c r="B25" s="64" t="str">
         <f>IFERROR(VLOOKUP("D1",$Q$5:$X$66,4,0),"")</f>
         <v/>
       </c>
-      <c r="C25" s="200" t="e">
+      <c r="C25" s="197" t="e">
         <f ca="1">_xludf.image("https://img.pokemondb.net/sprites/sun-moon/icon/"&amp;LOWER(B25)&amp;".png", 1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D25" s="196" t="str">
+      <c r="D25" s="195" t="str">
         <f>IFERROR(VLOOKUP("D1",$Q$5:$X$66,8,0),"")</f>
         <v/>
       </c>
-      <c r="E25" s="198" t="str">
+      <c r="E25" s="194" t="str">
         <f>IFERROR(VLOOKUP("D1",$Q$5:$X$66,7,0),"")</f>
         <v/>
       </c>
-      <c r="F25" s="180"/>
-      <c r="G25" s="196" t="str">
+      <c r="F25" s="147"/>
+      <c r="G25" s="195" t="str">
         <f>IFERROR(VLOOKUP("D1",$Q$5:$X$66,5,0),"")</f>
         <v/>
       </c>
@@ -8727,17 +8729,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="14.25">
+    <row r="26" spans="1:24" ht="21">
       <c r="A26" s="30"/>
       <c r="B26" s="65" t="str">
         <f>IFERROR(VLOOKUP("D1",$Q$5:$X$66,3,0),"")</f>
         <v/>
       </c>
-      <c r="C26" s="170"/>
-      <c r="D26" s="195"/>
-      <c r="E26" s="145"/>
-      <c r="F26" s="170"/>
-      <c r="G26" s="195"/>
+      <c r="C26" s="139"/>
+      <c r="D26" s="196"/>
+      <c r="E26" s="159"/>
+      <c r="F26" s="139"/>
+      <c r="G26" s="196"/>
       <c r="H26" s="51"/>
       <c r="I26" s="53" t="s">
         <v>204</v>
@@ -8789,26 +8791,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="14.25">
+    <row r="27" spans="1:24" ht="21">
       <c r="A27" s="30"/>
       <c r="B27" s="64" t="str">
         <f>IFERROR(VLOOKUP("D2",$Q$5:$X$66,4,0),"")</f>
         <v/>
       </c>
-      <c r="C27" s="200" t="e">
+      <c r="C27" s="197" t="e">
         <f ca="1">_xludf.image("https://img.pokemondb.net/sprites/sun-moon/icon/"&amp;LOWER(B27)&amp;".png", 1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D27" s="196" t="str">
+      <c r="D27" s="195" t="str">
         <f>IFERROR(VLOOKUP("D2",$Q$5:$X$66,8,0),"")</f>
         <v/>
       </c>
-      <c r="E27" s="198" t="str">
+      <c r="E27" s="194" t="str">
         <f>IFERROR(VLOOKUP("D2",$Q$5:$X$66,7,0),"")</f>
         <v/>
       </c>
-      <c r="F27" s="180"/>
-      <c r="G27" s="196" t="str">
+      <c r="F27" s="147"/>
+      <c r="G27" s="195" t="str">
         <f>IFERROR(VLOOKUP("D2",$Q$5:$X$66,5,0),"")</f>
         <v/>
       </c>
@@ -8859,17 +8861,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="14.25">
+    <row r="28" spans="1:24" ht="21">
       <c r="A28" s="30"/>
       <c r="B28" s="65" t="str">
         <f>IFERROR(VLOOKUP("D2",$Q$5:$X$66,3,0),"")</f>
         <v/>
       </c>
-      <c r="C28" s="170"/>
-      <c r="D28" s="195"/>
-      <c r="E28" s="145"/>
-      <c r="F28" s="170"/>
-      <c r="G28" s="195"/>
+      <c r="C28" s="139"/>
+      <c r="D28" s="196"/>
+      <c r="E28" s="159"/>
+      <c r="F28" s="139"/>
+      <c r="G28" s="196"/>
       <c r="H28" s="51"/>
       <c r="I28" s="42" t="s">
         <v>206</v>
@@ -8917,26 +8919,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="14.25">
+    <row r="29" spans="1:24" ht="21">
       <c r="A29" s="30"/>
       <c r="B29" s="64" t="str">
         <f>IFERROR(VLOOKUP("D3",$Q$5:$X$66,4,0),"")</f>
         <v/>
       </c>
-      <c r="C29" s="200" t="e">
+      <c r="C29" s="197" t="e">
         <f ca="1">_xludf.image("https://img.pokemondb.net/sprites/sun-moon/icon/"&amp;LOWER(B29)&amp;".png", 1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D29" s="196" t="str">
+      <c r="D29" s="195" t="str">
         <f>IFERROR(VLOOKUP("D3",$Q$5:$X$66,8,0),"")</f>
         <v/>
       </c>
-      <c r="E29" s="198" t="str">
+      <c r="E29" s="194" t="str">
         <f>IFERROR(VLOOKUP("D3",$Q$5:$X$66,7,0),"")</f>
         <v/>
       </c>
-      <c r="F29" s="180"/>
-      <c r="G29" s="196" t="str">
+      <c r="F29" s="147"/>
+      <c r="G29" s="195" t="str">
         <f>IFERROR(VLOOKUP("D3",$Q$5:$X$66,5,0),"")</f>
         <v/>
       </c>
@@ -8987,17 +8989,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="14.25">
+    <row r="30" spans="1:24" ht="21">
       <c r="A30" s="30"/>
       <c r="B30" s="65" t="str">
         <f>IFERROR(VLOOKUP("D3",$Q$5:$X$66,3,0),"")</f>
         <v/>
       </c>
-      <c r="C30" s="170"/>
-      <c r="D30" s="195"/>
-      <c r="E30" s="145"/>
-      <c r="F30" s="170"/>
-      <c r="G30" s="195"/>
+      <c r="C30" s="139"/>
+      <c r="D30" s="196"/>
+      <c r="E30" s="159"/>
+      <c r="F30" s="139"/>
+      <c r="G30" s="196"/>
       <c r="H30" s="51"/>
       <c r="I30" s="42" t="s">
         <v>207</v>
@@ -9045,26 +9047,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="14.25">
+    <row r="31" spans="1:24" ht="21">
       <c r="A31" s="30"/>
       <c r="B31" s="64" t="str">
         <f>IFERROR(VLOOKUP("D4",$Q$5:$X$66,4,0),"")</f>
         <v/>
       </c>
-      <c r="C31" s="200" t="e">
+      <c r="C31" s="197" t="e">
         <f ca="1">_xludf.image("https://img.pokemondb.net/sprites/sun-moon/icon/"&amp;LOWER(B31)&amp;".png", 1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D31" s="196" t="str">
+      <c r="D31" s="195" t="str">
         <f>IFERROR(VLOOKUP("D4",$Q$5:$X$66,8,0),"")</f>
         <v/>
       </c>
-      <c r="E31" s="198" t="str">
+      <c r="E31" s="194" t="str">
         <f>IFERROR(VLOOKUP("D4",$Q$5:$X$66,7,0),"")</f>
         <v/>
       </c>
-      <c r="F31" s="180"/>
-      <c r="G31" s="196" t="str">
+      <c r="F31" s="147"/>
+      <c r="G31" s="195" t="str">
         <f>IFERROR(VLOOKUP("D4",$Q$5:$X$66,5,0),"")</f>
         <v/>
       </c>
@@ -9115,17 +9117,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="14.25">
+    <row r="32" spans="1:24" ht="21">
       <c r="A32" s="30"/>
       <c r="B32" s="65" t="str">
         <f>IFERROR(VLOOKUP("D4",$Q$5:$X$66,3,0),"")</f>
         <v/>
       </c>
-      <c r="C32" s="170"/>
-      <c r="D32" s="195"/>
-      <c r="E32" s="145"/>
-      <c r="F32" s="170"/>
-      <c r="G32" s="195"/>
+      <c r="C32" s="139"/>
+      <c r="D32" s="196"/>
+      <c r="E32" s="159"/>
+      <c r="F32" s="139"/>
+      <c r="G32" s="196"/>
       <c r="H32" s="51"/>
       <c r="I32" s="42" t="s">
         <v>208</v>
@@ -9173,26 +9175,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="14.25">
+    <row r="33" spans="1:24" ht="21">
       <c r="A33" s="30"/>
       <c r="B33" s="64" t="str">
         <f>IFERROR(VLOOKUP("D5",$Q$5:$X$66,4,0),"")</f>
         <v/>
       </c>
-      <c r="C33" s="200" t="e">
+      <c r="C33" s="197" t="e">
         <f ca="1">_xludf.image("https://img.pokemondb.net/sprites/sun-moon/icon/"&amp;LOWER(B33)&amp;".png", 1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D33" s="196" t="str">
+      <c r="D33" s="195" t="str">
         <f>IFERROR(VLOOKUP("D5",$Q$5:$X$66,8,0),"")</f>
         <v/>
       </c>
-      <c r="E33" s="198" t="str">
+      <c r="E33" s="194" t="str">
         <f>IFERROR(VLOOKUP("D5",$Q$5:$X$66,7,0),"")</f>
         <v/>
       </c>
-      <c r="F33" s="180"/>
-      <c r="G33" s="196" t="str">
+      <c r="F33" s="147"/>
+      <c r="G33" s="195" t="str">
         <f>IFERROR(VLOOKUP("D5",$Q$5:$X$66,5,0),"")</f>
         <v/>
       </c>
@@ -9243,17 +9245,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="14.25">
+    <row r="34" spans="1:24" ht="21">
       <c r="A34" s="30"/>
       <c r="B34" s="65" t="str">
         <f>IFERROR(VLOOKUP("D5",$Q$5:$X$66,3,0),"")</f>
         <v/>
       </c>
-      <c r="C34" s="170"/>
-      <c r="D34" s="195"/>
-      <c r="E34" s="145"/>
-      <c r="F34" s="170"/>
-      <c r="G34" s="195"/>
+      <c r="C34" s="139"/>
+      <c r="D34" s="196"/>
+      <c r="E34" s="159"/>
+      <c r="F34" s="139"/>
+      <c r="G34" s="196"/>
       <c r="H34" s="51"/>
       <c r="I34" s="42" t="s">
         <v>103</v>
@@ -9301,26 +9303,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="14.25">
+    <row r="35" spans="1:24" ht="21">
       <c r="A35" s="30"/>
       <c r="B35" s="64" t="str">
         <f>IFERROR(VLOOKUP("D6",$Q$5:$X$66,4,0),"")</f>
         <v/>
       </c>
-      <c r="C35" s="200" t="e">
+      <c r="C35" s="197" t="e">
         <f ca="1">_xludf.image("https://img.pokemondb.net/sprites/sun-moon/icon/"&amp;LOWER(B35)&amp;".png", 1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D35" s="196" t="str">
+      <c r="D35" s="195" t="str">
         <f>IFERROR(VLOOKUP("D6",$Q$5:$X$66,8,0),"")</f>
         <v/>
       </c>
-      <c r="E35" s="198" t="str">
+      <c r="E35" s="194" t="str">
         <f>IFERROR(VLOOKUP("D6",$Q$5:$X$66,7,0),"")</f>
         <v/>
       </c>
-      <c r="F35" s="180"/>
-      <c r="G35" s="196" t="str">
+      <c r="F35" s="147"/>
+      <c r="G35" s="195" t="str">
         <f>IFERROR(VLOOKUP("D6",$Q$5:$X$66,5,0),"")</f>
         <v/>
       </c>
@@ -9375,17 +9377,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="14.25">
+    <row r="36" spans="1:24" ht="21">
       <c r="A36" s="30"/>
       <c r="B36" s="65" t="str">
         <f>IFERROR(VLOOKUP("D6",$Q$5:$X$66,3,0),"")</f>
         <v/>
       </c>
-      <c r="C36" s="170"/>
-      <c r="D36" s="195"/>
-      <c r="E36" s="145"/>
-      <c r="F36" s="170"/>
-      <c r="G36" s="195"/>
+      <c r="C36" s="139"/>
+      <c r="D36" s="196"/>
+      <c r="E36" s="159"/>
+      <c r="F36" s="139"/>
+      <c r="G36" s="196"/>
       <c r="H36" s="51"/>
       <c r="I36" s="42" t="s">
         <v>108</v>
@@ -9433,26 +9435,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="14.25">
+    <row r="37" spans="1:24" ht="21">
       <c r="A37" s="30"/>
       <c r="B37" s="64" t="str">
         <f>IFERROR(VLOOKUP("D7",$Q$5:$X$66,4,0),"")</f>
         <v/>
       </c>
-      <c r="C37" s="200" t="e">
+      <c r="C37" s="197" t="e">
         <f ca="1">_xludf.image("https://img.pokemondb.net/sprites/sun-moon/icon/"&amp;LOWER(B37)&amp;".png", 1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D37" s="196" t="str">
+      <c r="D37" s="195" t="str">
         <f>IFERROR(VLOOKUP("D7",$Q$5:$X$66,8,0),"")</f>
         <v/>
       </c>
-      <c r="E37" s="198" t="str">
+      <c r="E37" s="194" t="str">
         <f>IFERROR(VLOOKUP("D7",$Q$5:$X$66,7,0),"")</f>
         <v/>
       </c>
-      <c r="F37" s="180"/>
-      <c r="G37" s="196" t="str">
+      <c r="F37" s="147"/>
+      <c r="G37" s="195" t="str">
         <f>IFERROR(VLOOKUP("D7",$Q$5:$X$66,5,0),"")</f>
         <v/>
       </c>
@@ -9507,17 +9509,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="14.25">
+    <row r="38" spans="1:24" ht="21">
       <c r="A38" s="30"/>
       <c r="B38" s="65" t="str">
         <f>IFERROR(VLOOKUP("D7",$Q$5:$X$66,3,0),"")</f>
         <v/>
       </c>
-      <c r="C38" s="170"/>
-      <c r="D38" s="195"/>
-      <c r="E38" s="145"/>
-      <c r="F38" s="170"/>
-      <c r="G38" s="195"/>
+      <c r="C38" s="139"/>
+      <c r="D38" s="196"/>
+      <c r="E38" s="159"/>
+      <c r="F38" s="139"/>
+      <c r="G38" s="196"/>
       <c r="H38" s="51"/>
       <c r="I38" s="42" t="s">
         <v>123</v>
@@ -9565,26 +9567,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="14.25">
+    <row r="39" spans="1:24" ht="21">
       <c r="A39" s="30"/>
       <c r="B39" s="64" t="str">
         <f>IFERROR(VLOOKUP("D8",$Q$5:$X$66,4,0),"")</f>
         <v/>
       </c>
-      <c r="C39" s="200" t="e">
+      <c r="C39" s="197" t="e">
         <f ca="1">_xludf.image("https://img.pokemondb.net/sprites/sun-moon/icon/"&amp;LOWER(B39)&amp;".png", 1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D39" s="196" t="str">
+      <c r="D39" s="195" t="str">
         <f>IFERROR(VLOOKUP("D8",$Q$5:$X$66,8,0),"")</f>
         <v/>
       </c>
-      <c r="E39" s="198" t="str">
+      <c r="E39" s="194" t="str">
         <f>IFERROR(VLOOKUP("D8",$Q$5:$X$66,7,0),"")</f>
         <v/>
       </c>
-      <c r="F39" s="180"/>
-      <c r="G39" s="196" t="str">
+      <c r="F39" s="147"/>
+      <c r="G39" s="195" t="str">
         <f>IFERROR(VLOOKUP("D8",$Q$5:$X$66,5,0),"")</f>
         <v/>
       </c>
@@ -9635,17 +9637,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:24" ht="14.25">
+    <row r="40" spans="1:24" ht="21">
       <c r="A40" s="30"/>
       <c r="B40" s="65" t="str">
         <f>IFERROR(VLOOKUP("D8",$Q$5:$X$66,3,0),"")</f>
         <v/>
       </c>
-      <c r="C40" s="170"/>
-      <c r="D40" s="195"/>
-      <c r="E40" s="145"/>
-      <c r="F40" s="170"/>
-      <c r="G40" s="195"/>
+      <c r="C40" s="139"/>
+      <c r="D40" s="196"/>
+      <c r="E40" s="159"/>
+      <c r="F40" s="139"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="51"/>
       <c r="I40" s="42" t="s">
         <v>212</v>
@@ -9693,26 +9695,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:24" ht="14.25">
+    <row r="41" spans="1:24" ht="21">
       <c r="A41" s="30"/>
       <c r="B41" s="64" t="str">
         <f>IFERROR(VLOOKUP("D9",$Q$5:$X$66,4,0),"")</f>
         <v/>
       </c>
-      <c r="C41" s="200" t="e">
+      <c r="C41" s="197" t="e">
         <f ca="1">_xludf.image("https://img.pokemondb.net/sprites/sun-moon/icon/"&amp;LOWER(B41)&amp;".png", 1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D41" s="196" t="str">
+      <c r="D41" s="195" t="str">
         <f>IFERROR(VLOOKUP("D9",$Q$5:$X$66,8,0),"")</f>
         <v/>
       </c>
-      <c r="E41" s="198" t="str">
+      <c r="E41" s="194" t="str">
         <f>IFERROR(VLOOKUP("D9",$Q$5:$X$66,7,0),"")</f>
         <v/>
       </c>
-      <c r="F41" s="180"/>
-      <c r="G41" s="196" t="str">
+      <c r="F41" s="147"/>
+      <c r="G41" s="195" t="str">
         <f>IFERROR(VLOOKUP("D9",$Q$5:$X$66,5,0),"")</f>
         <v/>
       </c>
@@ -9763,17 +9765,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="14.25">
+    <row r="42" spans="1:24" ht="21">
       <c r="A42" s="30"/>
       <c r="B42" s="65" t="str">
         <f>IFERROR(VLOOKUP("D9",$Q$5:$X$66,3,0),"")</f>
         <v/>
       </c>
-      <c r="C42" s="170"/>
-      <c r="D42" s="195"/>
-      <c r="E42" s="145"/>
-      <c r="F42" s="170"/>
-      <c r="G42" s="195"/>
+      <c r="C42" s="139"/>
+      <c r="D42" s="196"/>
+      <c r="E42" s="159"/>
+      <c r="F42" s="139"/>
+      <c r="G42" s="196"/>
       <c r="H42" s="51"/>
       <c r="I42" s="42" t="s">
         <v>214</v>
@@ -9821,26 +9823,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:24" ht="14.25">
+    <row r="43" spans="1:24" ht="21">
       <c r="A43" s="30"/>
       <c r="B43" s="64" t="str">
         <f>IFERROR(VLOOKUP("D10",$Q$5:$X$66,4,0),"")</f>
         <v/>
       </c>
-      <c r="C43" s="200" t="e">
+      <c r="C43" s="197" t="e">
         <f ca="1">_xludf.image("https://img.pokemondb.net/sprites/sun-moon/icon/"&amp;LOWER(B43)&amp;".png", 1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D43" s="196" t="str">
+      <c r="D43" s="195" t="str">
         <f>IFERROR(VLOOKUP("D10",$Q$5:$X$66,8,0),"")</f>
         <v/>
       </c>
-      <c r="E43" s="198" t="str">
+      <c r="E43" s="194" t="str">
         <f>IFERROR(VLOOKUP("D10",$Q$5:$X$66,7,0),"")</f>
         <v/>
       </c>
-      <c r="F43" s="180"/>
-      <c r="G43" s="196" t="str">
+      <c r="F43" s="147"/>
+      <c r="G43" s="195" t="str">
         <f>IFERROR(VLOOKUP("D10",$Q$5:$X$66,5,0),"")</f>
         <v/>
       </c>
@@ -9891,17 +9893,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:24" ht="14.25">
+    <row r="44" spans="1:24" ht="21">
       <c r="A44" s="30"/>
       <c r="B44" s="65" t="str">
         <f>IFERROR(VLOOKUP("D10",$Q$5:$X$66,3,0),"")</f>
         <v/>
       </c>
-      <c r="C44" s="170"/>
-      <c r="D44" s="195"/>
-      <c r="E44" s="145"/>
-      <c r="F44" s="170"/>
-      <c r="G44" s="195"/>
+      <c r="C44" s="139"/>
+      <c r="D44" s="196"/>
+      <c r="E44" s="159"/>
+      <c r="F44" s="139"/>
+      <c r="G44" s="196"/>
       <c r="H44" s="51"/>
       <c r="I44" s="42" t="s">
         <v>216</v>
@@ -9949,26 +9951,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:24" ht="14.25">
+    <row r="45" spans="1:24" ht="21">
       <c r="A45" s="30"/>
       <c r="B45" s="64" t="str">
         <f>IFERROR(VLOOKUP("D11",$Q$5:$X$66,4,0),"")</f>
         <v/>
       </c>
-      <c r="C45" s="200" t="e">
+      <c r="C45" s="197" t="e">
         <f ca="1">_xludf.image("https://img.pokemondb.net/sprites/sun-moon/icon/"&amp;LOWER(B45)&amp;".png", 1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D45" s="196" t="str">
+      <c r="D45" s="195" t="str">
         <f>IFERROR(VLOOKUP("D11",$Q$5:$X$66,8,0),"")</f>
         <v/>
       </c>
-      <c r="E45" s="198" t="str">
+      <c r="E45" s="194" t="str">
         <f>IFERROR(VLOOKUP("D11",$Q$5:$X$66,7,0),"")</f>
         <v/>
       </c>
-      <c r="F45" s="180"/>
-      <c r="G45" s="196" t="str">
+      <c r="F45" s="147"/>
+      <c r="G45" s="195" t="str">
         <f>IFERROR(VLOOKUP("D11",$Q$5:$X$66,5,0),"")</f>
         <v/>
       </c>
@@ -10019,17 +10021,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:24" ht="14.25">
+    <row r="46" spans="1:24" ht="21">
       <c r="A46" s="30"/>
       <c r="B46" s="65" t="str">
         <f>IFERROR(VLOOKUP("D11",$Q$5:$X$66,3,0),"")</f>
         <v/>
       </c>
-      <c r="C46" s="170"/>
-      <c r="D46" s="195"/>
-      <c r="E46" s="145"/>
-      <c r="F46" s="170"/>
-      <c r="G46" s="195"/>
+      <c r="C46" s="139"/>
+      <c r="D46" s="196"/>
+      <c r="E46" s="159"/>
+      <c r="F46" s="139"/>
+      <c r="G46" s="196"/>
       <c r="H46" s="51"/>
       <c r="I46" s="42" t="s">
         <v>218</v>
@@ -10077,26 +10079,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:24" ht="14.25">
+    <row r="47" spans="1:24" ht="21">
       <c r="A47" s="30"/>
       <c r="B47" s="64" t="str">
         <f>IFERROR(VLOOKUP("D12",$Q$5:$X$66,4,0),"")</f>
         <v/>
       </c>
-      <c r="C47" s="200" t="e">
+      <c r="C47" s="197" t="e">
         <f ca="1">_xludf.image("https://img.pokemondb.net/sprites/sun-moon/icon/"&amp;LOWER(B47)&amp;".png", 1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D47" s="196" t="str">
+      <c r="D47" s="195" t="str">
         <f>IFERROR(VLOOKUP("D12",$Q$5:$X$66,8,0),"")</f>
         <v/>
       </c>
-      <c r="E47" s="198" t="str">
+      <c r="E47" s="194" t="str">
         <f>IFERROR(VLOOKUP("D12",$Q$5:$X$66,7,0),"")</f>
         <v/>
       </c>
-      <c r="F47" s="180"/>
-      <c r="G47" s="196" t="str">
+      <c r="F47" s="147"/>
+      <c r="G47" s="195" t="str">
         <f>IFERROR(VLOOKUP("D12",$Q$5:$X$66,5,0),"")</f>
         <v/>
       </c>
@@ -10147,17 +10149,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:24" ht="14.25">
+    <row r="48" spans="1:24" ht="21">
       <c r="A48" s="30"/>
       <c r="B48" s="65" t="str">
         <f>IFERROR(VLOOKUP("D12",$Q$5:$X$66,3,0),"")</f>
         <v/>
       </c>
-      <c r="C48" s="170"/>
-      <c r="D48" s="195"/>
-      <c r="E48" s="145"/>
-      <c r="F48" s="170"/>
-      <c r="G48" s="195"/>
+      <c r="C48" s="139"/>
+      <c r="D48" s="196"/>
+      <c r="E48" s="159"/>
+      <c r="F48" s="139"/>
+      <c r="G48" s="196"/>
       <c r="H48" s="51"/>
       <c r="I48" s="42" t="s">
         <v>219</v>
@@ -10205,26 +10207,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:24" ht="14.25">
+    <row r="49" spans="1:24" ht="21">
       <c r="A49" s="30"/>
       <c r="B49" s="64" t="str">
         <f>IFERROR(VLOOKUP("D13",$Q$5:$X$66,4,0),"")</f>
         <v/>
       </c>
-      <c r="C49" s="200" t="e">
+      <c r="C49" s="197" t="e">
         <f ca="1">_xludf.image("https://img.pokemondb.net/sprites/sun-moon/icon/"&amp;LOWER(B49)&amp;".png", 1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D49" s="196" t="str">
+      <c r="D49" s="195" t="str">
         <f>IFERROR(VLOOKUP("D13",$Q$5:$X$66,8,0),"")</f>
         <v/>
       </c>
-      <c r="E49" s="198" t="str">
+      <c r="E49" s="194" t="str">
         <f>IFERROR(VLOOKUP("D13",$Q$5:$X$66,7,0),"")</f>
         <v/>
       </c>
-      <c r="F49" s="180"/>
-      <c r="G49" s="196" t="str">
+      <c r="F49" s="147"/>
+      <c r="G49" s="195" t="str">
         <f>IFERROR(VLOOKUP("D13",$Q$5:$X$66,5,0),"")</f>
         <v/>
       </c>
@@ -10275,17 +10277,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:24" ht="14.25">
+    <row r="50" spans="1:24" ht="21">
       <c r="A50" s="30"/>
       <c r="B50" s="65" t="str">
         <f>IFERROR(VLOOKUP("D13",$Q$5:$X$66,3,0),"")</f>
         <v/>
       </c>
-      <c r="C50" s="170"/>
-      <c r="D50" s="195"/>
-      <c r="E50" s="145"/>
-      <c r="F50" s="170"/>
-      <c r="G50" s="195"/>
+      <c r="C50" s="139"/>
+      <c r="D50" s="196"/>
+      <c r="E50" s="159"/>
+      <c r="F50" s="139"/>
+      <c r="G50" s="196"/>
       <c r="H50" s="51"/>
       <c r="I50" s="42" t="s">
         <v>221</v>
@@ -10333,26 +10335,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:24" ht="14.25">
+    <row r="51" spans="1:24" ht="21">
       <c r="A51" s="30"/>
       <c r="B51" s="64" t="str">
         <f>IFERROR(VLOOKUP("D14",$Q$5:$X$66,4,0),"")</f>
         <v/>
       </c>
-      <c r="C51" s="200" t="e">
+      <c r="C51" s="197" t="e">
         <f ca="1">_xludf.image("https://img.pokemondb.net/sprites/sun-moon/icon/"&amp;LOWER(B51)&amp;".png", 1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D51" s="196" t="str">
+      <c r="D51" s="195" t="str">
         <f>IFERROR(VLOOKUP("D14",$Q$5:$X$66,8,0),"")</f>
         <v/>
       </c>
-      <c r="E51" s="198" t="str">
+      <c r="E51" s="194" t="str">
         <f>IFERROR(VLOOKUP("D14",$Q$5:$X$66,7,0),"")</f>
         <v/>
       </c>
-      <c r="F51" s="180"/>
-      <c r="G51" s="196" t="str">
+      <c r="F51" s="147"/>
+      <c r="G51" s="195" t="str">
         <f>IFERROR(VLOOKUP("D14",$Q$5:$X$66,5,0),"")</f>
         <v/>
       </c>
@@ -10403,17 +10405,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:24" ht="14.25">
+    <row r="52" spans="1:24" ht="21">
       <c r="A52" s="30"/>
       <c r="B52" s="65" t="str">
         <f>IFERROR(VLOOKUP("D14",$Q$5:$X$66,3,0),"")</f>
         <v/>
       </c>
-      <c r="C52" s="170"/>
-      <c r="D52" s="195"/>
-      <c r="E52" s="145"/>
-      <c r="F52" s="170"/>
-      <c r="G52" s="195"/>
+      <c r="C52" s="139"/>
+      <c r="D52" s="196"/>
+      <c r="E52" s="159"/>
+      <c r="F52" s="139"/>
+      <c r="G52" s="196"/>
       <c r="H52" s="51"/>
       <c r="I52" s="42" t="s">
         <v>223</v>
@@ -10461,26 +10463,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:24" ht="14.25">
+    <row r="53" spans="1:24" ht="21">
       <c r="A53" s="30"/>
       <c r="B53" s="64" t="str">
         <f>IFERROR(VLOOKUP("D15",$Q$5:$X$66,4,0),"")</f>
         <v/>
       </c>
-      <c r="C53" s="200" t="e">
+      <c r="C53" s="197" t="e">
         <f ca="1">_xludf.image("https://img.pokemondb.net/sprites/sun-moon/icon/"&amp;LOWER(B53)&amp;".png", 1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D53" s="196" t="str">
+      <c r="D53" s="195" t="str">
         <f>IFERROR(VLOOKUP("D15",$Q$5:$X$66,8,0),"")</f>
         <v/>
       </c>
-      <c r="E53" s="198" t="str">
+      <c r="E53" s="194" t="str">
         <f>IFERROR(VLOOKUP("D15",$Q$5:$X$66,7,0),"")</f>
         <v/>
       </c>
-      <c r="F53" s="180"/>
-      <c r="G53" s="196" t="str">
+      <c r="F53" s="147"/>
+      <c r="G53" s="195" t="str">
         <f>IFERROR(VLOOKUP("D15",$Q$5:$X$66,5,0),"")</f>
         <v/>
       </c>
@@ -10531,17 +10533,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:24" ht="14.25">
+    <row r="54" spans="1:24" ht="21">
       <c r="A54" s="30"/>
       <c r="B54" s="65" t="str">
         <f>IFERROR(VLOOKUP("D15",$Q$5:$X$66,3,0),"")</f>
         <v/>
       </c>
-      <c r="C54" s="170"/>
-      <c r="D54" s="195"/>
-      <c r="E54" s="145"/>
-      <c r="F54" s="170"/>
-      <c r="G54" s="195"/>
+      <c r="C54" s="139"/>
+      <c r="D54" s="196"/>
+      <c r="E54" s="159"/>
+      <c r="F54" s="139"/>
+      <c r="G54" s="196"/>
       <c r="H54" s="51"/>
       <c r="I54" s="42" t="s">
         <v>137</v>
@@ -10589,26 +10591,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:24" ht="14.25">
+    <row r="55" spans="1:24" ht="21">
       <c r="A55" s="30"/>
       <c r="B55" s="64" t="str">
         <f>IFERROR(VLOOKUP("D16",$Q$5:$X$66,4,0),"")</f>
         <v/>
       </c>
-      <c r="C55" s="200" t="e">
+      <c r="C55" s="197" t="e">
         <f ca="1">_xludf.image("https://img.pokemondb.net/sprites/sun-moon/icon/"&amp;LOWER(B55)&amp;".png", 1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D55" s="196" t="str">
+      <c r="D55" s="195" t="str">
         <f>IFERROR(VLOOKUP("D16",$Q$5:$X$66,8,0),"")</f>
         <v/>
       </c>
-      <c r="E55" s="198" t="str">
+      <c r="E55" s="194" t="str">
         <f>IFERROR(VLOOKUP("D16",$Q$5:$X$66,7,0),"")</f>
         <v/>
       </c>
-      <c r="F55" s="180"/>
-      <c r="G55" s="196" t="str">
+      <c r="F55" s="147"/>
+      <c r="G55" s="195" t="str">
         <f>IFERROR(VLOOKUP("D16",$Q$5:$X$66,5,0),"")</f>
         <v/>
       </c>
@@ -10659,17 +10661,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:24" ht="14.25">
+    <row r="56" spans="1:24" ht="21">
       <c r="A56" s="30"/>
       <c r="B56" s="65" t="str">
         <f>IFERROR(VLOOKUP("D16",$Q$5:$X$66,3,0),"")</f>
         <v/>
       </c>
-      <c r="C56" s="170"/>
-      <c r="D56" s="195"/>
-      <c r="E56" s="145"/>
-      <c r="F56" s="170"/>
-      <c r="G56" s="195"/>
+      <c r="C56" s="139"/>
+      <c r="D56" s="196"/>
+      <c r="E56" s="159"/>
+      <c r="F56" s="139"/>
+      <c r="G56" s="196"/>
       <c r="H56" s="51"/>
       <c r="I56" s="42" t="s">
         <v>226</v>
@@ -10717,26 +10719,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:24" ht="14.25">
+    <row r="57" spans="1:24" ht="21">
       <c r="A57" s="30"/>
       <c r="B57" s="64" t="str">
         <f>IFERROR(VLOOKUP("D17",$Q$5:$X$66,4,0),"")</f>
         <v/>
       </c>
-      <c r="C57" s="200" t="e">
+      <c r="C57" s="197" t="e">
         <f ca="1">_xludf.image("https://img.pokemondb.net/sprites/sun-moon/icon/"&amp;LOWER(B57)&amp;".png", 1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D57" s="196" t="str">
+      <c r="D57" s="195" t="str">
         <f>IFERROR(VLOOKUP("D17",$Q$5:$X$66,8,0),"")</f>
         <v/>
       </c>
-      <c r="E57" s="198" t="str">
+      <c r="E57" s="194" t="str">
         <f>IFERROR(VLOOKUP("D17",$Q$5:$X$66,7,0),"")</f>
         <v/>
       </c>
-      <c r="F57" s="180"/>
-      <c r="G57" s="196" t="str">
+      <c r="F57" s="147"/>
+      <c r="G57" s="195" t="str">
         <f>IFERROR(VLOOKUP("D17",$Q$5:$X$66,5,0),"")</f>
         <v/>
       </c>
@@ -10787,17 +10789,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:24" ht="14.25">
+    <row r="58" spans="1:24" ht="21">
       <c r="A58" s="30"/>
       <c r="B58" s="65" t="str">
         <f>IFERROR(VLOOKUP("D17",$Q$5:$X$66,3,0),"")</f>
         <v/>
       </c>
-      <c r="C58" s="170"/>
-      <c r="D58" s="195"/>
-      <c r="E58" s="145"/>
-      <c r="F58" s="170"/>
-      <c r="G58" s="195"/>
+      <c r="C58" s="139"/>
+      <c r="D58" s="196"/>
+      <c r="E58" s="159"/>
+      <c r="F58" s="139"/>
+      <c r="G58" s="196"/>
       <c r="H58" s="51"/>
       <c r="I58" s="42" t="s">
         <v>134</v>
@@ -10845,26 +10847,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:24" ht="14.25">
+    <row r="59" spans="1:24" ht="21">
       <c r="A59" s="30"/>
       <c r="B59" s="64" t="str">
         <f>IFERROR(VLOOKUP("D18",$Q$5:$X$66,4,0),"")</f>
         <v/>
       </c>
-      <c r="C59" s="200" t="e">
+      <c r="C59" s="197" t="e">
         <f ca="1">_xludf.image("https://img.pokemondb.net/sprites/sun-moon/icon/"&amp;LOWER(B59)&amp;".png", 1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D59" s="196" t="str">
+      <c r="D59" s="195" t="str">
         <f>IFERROR(VLOOKUP("D18",$Q$5:$X$66,8,0),"")</f>
         <v/>
       </c>
-      <c r="E59" s="198" t="str">
+      <c r="E59" s="194" t="str">
         <f>IFERROR(VLOOKUP("D18",$Q$5:$X$66,7,0),"")</f>
         <v/>
       </c>
-      <c r="F59" s="180"/>
-      <c r="G59" s="196" t="str">
+      <c r="F59" s="147"/>
+      <c r="G59" s="195" t="str">
         <f>IFERROR(VLOOKUP("D18",$Q$5:$X$66,5,0),"")</f>
         <v/>
       </c>
@@ -10915,17 +10917,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:24" ht="14.25">
+    <row r="60" spans="1:24" ht="21">
       <c r="A60" s="30"/>
       <c r="B60" s="65" t="str">
         <f>IFERROR(VLOOKUP("D18",$Q$5:$X$66,3,0),"")</f>
         <v/>
       </c>
-      <c r="C60" s="170"/>
-      <c r="D60" s="195"/>
-      <c r="E60" s="145"/>
-      <c r="F60" s="170"/>
-      <c r="G60" s="195"/>
+      <c r="C60" s="139"/>
+      <c r="D60" s="196"/>
+      <c r="E60" s="159"/>
+      <c r="F60" s="139"/>
+      <c r="G60" s="196"/>
       <c r="H60" s="51"/>
       <c r="I60" s="42" t="s">
         <v>144</v>
@@ -10973,26 +10975,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:24" ht="14.25">
+    <row r="61" spans="1:24" ht="21">
       <c r="A61" s="30"/>
       <c r="B61" s="64" t="str">
         <f>IFERROR(VLOOKUP("D19",$Q$5:$X$66,4,0),"")</f>
         <v/>
       </c>
-      <c r="C61" s="200" t="e">
+      <c r="C61" s="197" t="e">
         <f ca="1">_xludf.image("https://img.pokemondb.net/sprites/sun-moon/icon/"&amp;LOWER(B61)&amp;".png", 1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D61" s="196" t="str">
+      <c r="D61" s="195" t="str">
         <f>IFERROR(VLOOKUP("D19",$Q$5:$X$66,8,0),"")</f>
         <v/>
       </c>
-      <c r="E61" s="198" t="str">
+      <c r="E61" s="194" t="str">
         <f>IFERROR(VLOOKUP("D19",$Q$5:$X$66,7,0),"")</f>
         <v/>
       </c>
-      <c r="F61" s="180"/>
-      <c r="G61" s="196" t="str">
+      <c r="F61" s="147"/>
+      <c r="G61" s="195" t="str">
         <f>IFERROR(VLOOKUP("D19",$Q$5:$X$66,5,0),"")</f>
         <v/>
       </c>
@@ -11043,17 +11045,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:24" ht="14.25">
+    <row r="62" spans="1:24" ht="21">
       <c r="A62" s="30"/>
       <c r="B62" s="65" t="str">
         <f>IFERROR(VLOOKUP("D19",$Q$5:$X$66,3,0),"")</f>
         <v/>
       </c>
-      <c r="C62" s="170"/>
-      <c r="D62" s="195"/>
-      <c r="E62" s="145"/>
-      <c r="F62" s="170"/>
-      <c r="G62" s="195"/>
+      <c r="C62" s="139"/>
+      <c r="D62" s="196"/>
+      <c r="E62" s="159"/>
+      <c r="F62" s="139"/>
+      <c r="G62" s="196"/>
       <c r="H62" s="51"/>
       <c r="I62" s="42" t="s">
         <v>230</v>
@@ -11101,26 +11103,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:24" ht="14.25">
+    <row r="63" spans="1:24" ht="21">
       <c r="A63" s="30"/>
       <c r="B63" s="64" t="str">
         <f>IFERROR(VLOOKUP("D20",$Q$5:$X$66,4,0),"")</f>
         <v/>
       </c>
-      <c r="C63" s="200" t="e">
+      <c r="C63" s="197" t="e">
         <f ca="1">_xludf.image("https://img.pokemondb.net/sprites/sun-moon/icon/"&amp;LOWER(B63)&amp;".png", 1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D63" s="196" t="str">
+      <c r="D63" s="195" t="str">
         <f>IFERROR(VLOOKUP("D20",$Q$5:$X$66,8,0),"")</f>
         <v/>
       </c>
-      <c r="E63" s="198" t="str">
+      <c r="E63" s="194" t="str">
         <f>IFERROR(VLOOKUP("D20",$Q$5:$X$66,7,0),"")</f>
         <v/>
       </c>
-      <c r="F63" s="180"/>
-      <c r="G63" s="196" t="str">
+      <c r="F63" s="147"/>
+      <c r="G63" s="195" t="str">
         <f>IFERROR(VLOOKUP("D20",$Q$5:$X$66,5,0),"")</f>
         <v/>
       </c>
@@ -11171,17 +11173,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:24" ht="14.25">
+    <row r="64" spans="1:24" ht="21">
       <c r="A64" s="30"/>
       <c r="B64" s="65" t="str">
         <f>IFERROR(VLOOKUP("D20",$Q$5:$X$66,3,0),"")</f>
         <v/>
       </c>
-      <c r="C64" s="170"/>
-      <c r="D64" s="195"/>
-      <c r="E64" s="145"/>
-      <c r="F64" s="170"/>
-      <c r="G64" s="195"/>
+      <c r="C64" s="139"/>
+      <c r="D64" s="196"/>
+      <c r="E64" s="159"/>
+      <c r="F64" s="139"/>
+      <c r="G64" s="196"/>
       <c r="H64" s="51"/>
       <c r="I64" s="42" t="s">
         <v>231</v>
@@ -11229,7 +11231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:24" ht="14.25" hidden="1">
+    <row r="65" spans="1:24" ht="21" hidden="1">
       <c r="A65" s="30"/>
       <c r="B65" s="30"/>
       <c r="C65" s="30"/>
@@ -11279,7 +11281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:24" ht="14.25" hidden="1">
+    <row r="66" spans="1:24" ht="21" hidden="1">
       <c r="A66" s="30"/>
       <c r="B66" s="30"/>
       <c r="C66" s="30"/>
@@ -11329,7 +11331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:24" ht="14.25" hidden="1">
+    <row r="67" spans="1:24" ht="21" hidden="1">
       <c r="A67" s="30"/>
       <c r="B67" s="30"/>
       <c r="C67" s="30"/>
@@ -11357,54 +11359,46 @@
     </row>
   </sheetData>
   <mergeCells count="105">
-    <mergeCell ref="E45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="E63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="E33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="E35:F36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="E37:F38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:F60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:F54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:F58"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:F50"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="B2:E3"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="B6:C11"/>
+    <mergeCell ref="D6:E11"/>
+    <mergeCell ref="F6:G11"/>
+    <mergeCell ref="B13:C18"/>
+    <mergeCell ref="D13:E18"/>
+    <mergeCell ref="F13:G18"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:F28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:F32"/>
     <mergeCell ref="G49:G50"/>
     <mergeCell ref="D51:D52"/>
     <mergeCell ref="E51:F52"/>
@@ -11422,46 +11416,54 @@
     <mergeCell ref="C43:C44"/>
     <mergeCell ref="C45:C46"/>
     <mergeCell ref="D45:D46"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:F28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:F32"/>
-    <mergeCell ref="B13:C18"/>
-    <mergeCell ref="D13:E18"/>
-    <mergeCell ref="F13:G18"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="B2:E3"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="B6:C11"/>
-    <mergeCell ref="D6:E11"/>
-    <mergeCell ref="F6:G11"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:F60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:F54"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:F58"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:F40"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:F50"/>
+    <mergeCell ref="E45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="E63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="E33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="E35:F36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="E37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="G39:G40"/>
   </mergeCells>
   <conditionalFormatting sqref="N5:N67">
     <cfRule type="expression" dxfId="3" priority="1">
@@ -11527,7 +11529,7 @@
       <formula1>"Turtwig,Chimchar,Piplup"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J47" xr:uid="{00000000-0002-0000-0200-000010000000}">
-      <formula1>"Mr-Mime,Floatzel,Shellos,Magikarp,Finneon,Heracross,Wurmple,Burmy,Combee,Cherubi"</formula1>
+      <formula1>"Mr. Mime,Floatzel,Shellos,Magikarp,Finneon,Heracross,Wurmple,Burmy,Combee,Cherubi"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J28" xr:uid="{00000000-0002-0000-0200-000011000000}">
       <formula1>"Eevee"</formula1>
@@ -13206,7 +13208,9 @@
   </sheetPr>
   <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -13215,35 +13219,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="201" t="s">
+      <c r="A1" s="220" t="s">
         <v>337</v>
       </c>
       <c r="B1" s="129"/>
-      <c r="C1" s="202" t="s">
+      <c r="C1" s="213" t="s">
         <v>338</v>
       </c>
-      <c r="D1" s="205">
+      <c r="D1" s="221">
         <f>SUM(B6:B13)</f>
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="130"/>
-      <c r="B2" s="131"/>
-      <c r="C2" s="203"/>
-      <c r="D2" s="206"/>
+      <c r="A2" s="148"/>
+      <c r="B2" s="154"/>
+      <c r="C2" s="214"/>
+      <c r="D2" s="217"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="130"/>
-      <c r="B3" s="131"/>
-      <c r="C3" s="203"/>
-      <c r="D3" s="206"/>
+      <c r="A3" s="148"/>
+      <c r="B3" s="154"/>
+      <c r="C3" s="214"/>
+      <c r="D3" s="217"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="132"/>
-      <c r="B4" s="134"/>
-      <c r="C4" s="204"/>
-      <c r="D4" s="207"/>
+      <c r="A4" s="130"/>
+      <c r="B4" s="132"/>
+      <c r="C4" s="215"/>
+      <c r="D4" s="218"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="77"/>
@@ -13259,10 +13263,10 @@
         <f>C56</f>
         <v>0</v>
       </c>
-      <c r="C6" s="202" t="s">
+      <c r="C6" s="213" t="s">
         <v>340</v>
       </c>
-      <c r="D6" s="205" t="str">
+      <c r="D6" s="221" t="str">
         <f>IF(B18="YES", "YES", "NO")</f>
         <v>NO</v>
       </c>
@@ -13275,8 +13279,8 @@
         <f>C65</f>
         <v>0</v>
       </c>
-      <c r="C7" s="203"/>
-      <c r="D7" s="206"/>
+      <c r="C7" s="214"/>
+      <c r="D7" s="217"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="83" t="s">
@@ -13286,8 +13290,8 @@
         <f>C16</f>
         <v>0</v>
       </c>
-      <c r="C8" s="203"/>
-      <c r="D8" s="206"/>
+      <c r="C8" s="214"/>
+      <c r="D8" s="217"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="83" t="s">
@@ -13297,8 +13301,8 @@
         <f>C25</f>
         <v>0</v>
       </c>
-      <c r="C9" s="204"/>
-      <c r="D9" s="207"/>
+      <c r="C9" s="215"/>
+      <c r="D9" s="218"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="83" t="s">
@@ -13308,10 +13312,10 @@
         <f>C32</f>
         <v>0</v>
       </c>
-      <c r="C10" s="202" t="s">
+      <c r="C10" s="213" t="s">
         <v>345</v>
       </c>
-      <c r="D10" s="211">
+      <c r="D10" s="216">
         <f>IF(D6="YES",(D1*1.5),D1)</f>
         <v>0</v>
       </c>
@@ -13324,8 +13328,8 @@
         <f>C42</f>
         <v>0</v>
       </c>
-      <c r="C11" s="203"/>
-      <c r="D11" s="206"/>
+      <c r="C11" s="214"/>
+      <c r="D11" s="217"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="83" t="s">
@@ -13335,8 +13339,8 @@
         <f>C47</f>
         <v>0</v>
       </c>
-      <c r="C12" s="203"/>
-      <c r="D12" s="206"/>
+      <c r="C12" s="214"/>
+      <c r="D12" s="217"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="84" t="s">
@@ -13346,8 +13350,8 @@
         <f>C53</f>
         <v>0</v>
       </c>
-      <c r="C13" s="204"/>
-      <c r="D13" s="207"/>
+      <c r="C13" s="215"/>
+      <c r="D13" s="218"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="77"/>
@@ -13356,12 +13360,12 @@
       <c r="D14" s="78"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="208" t="s">
+      <c r="A15" s="201" t="s">
         <v>349</v>
       </c>
-      <c r="B15" s="209"/>
-      <c r="C15" s="209"/>
-      <c r="D15" s="210"/>
+      <c r="B15" s="202"/>
+      <c r="C15" s="202"/>
+      <c r="D15" s="203"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="86" t="s">
@@ -13371,7 +13375,7 @@
         <f>IF(Tracker!C12=TRUE, "60", "0")</f>
         <v>0</v>
       </c>
-      <c r="C16" s="212">
+      <c r="C16" s="219">
         <f>B16+B17+IF(OR(B19="YES",B20="YES",B21="YES",B22="YES"),100)</f>
         <v>0</v>
       </c>
@@ -13385,8 +13389,8 @@
         <f>IF(Tracker!C13=TRUE, "200", "0")</f>
         <v>0</v>
       </c>
-      <c r="C17" s="130"/>
-      <c r="D17" s="131"/>
+      <c r="C17" s="148"/>
+      <c r="D17" s="154"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="88" t="s">
@@ -13396,8 +13400,8 @@
         <f>IF(Tracker!C14=TRUE, "YES", "NO")</f>
         <v>NO</v>
       </c>
-      <c r="C18" s="130"/>
-      <c r="D18" s="131"/>
+      <c r="C18" s="148"/>
+      <c r="D18" s="154"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="88" t="s">
@@ -13407,8 +13411,8 @@
         <f>IF(Tracker!C15=TRUE, "YES", "NO")</f>
         <v>NO</v>
       </c>
-      <c r="C19" s="130"/>
-      <c r="D19" s="131"/>
+      <c r="C19" s="148"/>
+      <c r="D19" s="154"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="88" t="s">
@@ -13418,8 +13422,8 @@
         <f>IF(Tracker!C16=TRUE, "YES", "NO")</f>
         <v>NO</v>
       </c>
-      <c r="C20" s="130"/>
-      <c r="D20" s="131"/>
+      <c r="C20" s="148"/>
+      <c r="D20" s="154"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="88" t="s">
@@ -13429,8 +13433,8 @@
         <f>IF(Tracker!C17=TRUE, "YES", "NO")</f>
         <v>NO</v>
       </c>
-      <c r="C21" s="130"/>
-      <c r="D21" s="131"/>
+      <c r="C21" s="148"/>
+      <c r="D21" s="154"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="88" t="s">
@@ -13440,8 +13444,8 @@
         <f>IF(Tracker!C18=TRUE, "YES", "NO")</f>
         <v>NO</v>
       </c>
-      <c r="C22" s="132"/>
-      <c r="D22" s="134"/>
+      <c r="C22" s="130"/>
+      <c r="D22" s="132"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="77"/>
@@ -13450,12 +13454,12 @@
       <c r="D23" s="78"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="208" t="s">
+      <c r="A24" s="201" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="209"/>
-      <c r="C24" s="209"/>
-      <c r="D24" s="210"/>
+      <c r="B24" s="202"/>
+      <c r="C24" s="202"/>
+      <c r="D24" s="203"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="90" t="s">
@@ -13465,7 +13469,7 @@
         <f>IF(Tracker!C21=TRUE, "40", "0")</f>
         <v>0</v>
       </c>
-      <c r="C25" s="213">
+      <c r="C25" s="210">
         <f>B25+B26+B27+B28+B29</f>
         <v>0</v>
       </c>
@@ -13479,8 +13483,8 @@
         <f>IF(Tracker!C22=TRUE, "40", "0")</f>
         <v>0</v>
       </c>
-      <c r="C26" s="130"/>
-      <c r="D26" s="131"/>
+      <c r="C26" s="148"/>
+      <c r="D26" s="154"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="92" t="s">
@@ -13490,8 +13494,8 @@
         <f>IF(Tracker!C23=TRUE, "40", "0")</f>
         <v>0</v>
       </c>
-      <c r="C27" s="130"/>
-      <c r="D27" s="131"/>
+      <c r="C27" s="148"/>
+      <c r="D27" s="154"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="92" t="s">
@@ -13501,8 +13505,8 @@
         <f>IF(Tracker!C24=TRUE, "40", "0")</f>
         <v>0</v>
       </c>
-      <c r="C28" s="130"/>
-      <c r="D28" s="131"/>
+      <c r="C28" s="148"/>
+      <c r="D28" s="154"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="92" t="s">
@@ -13512,8 +13516,8 @@
         <f>IF(Tracker!C25=TRUE, "40", "0")</f>
         <v>0</v>
       </c>
-      <c r="C29" s="132"/>
-      <c r="D29" s="134"/>
+      <c r="C29" s="130"/>
+      <c r="D29" s="132"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="77"/>
@@ -13522,12 +13526,12 @@
       <c r="D30" s="78"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="208" t="s">
+      <c r="A31" s="201" t="s">
         <v>360</v>
       </c>
-      <c r="B31" s="209"/>
-      <c r="C31" s="209"/>
-      <c r="D31" s="210"/>
+      <c r="B31" s="202"/>
+      <c r="C31" s="202"/>
+      <c r="D31" s="203"/>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="93" t="s">
@@ -13537,7 +13541,7 @@
         <f>IF(Tracker!C7=TRUE, "60", "0")</f>
         <v>0</v>
       </c>
-      <c r="C32" s="214">
+      <c r="C32" s="211">
         <f>B32+B33+B34+B35+B36+B37+B38+B39</f>
         <v>0</v>
       </c>
@@ -13551,8 +13555,8 @@
         <f>IF(Tracker!D7=TRUE, "60", "0")</f>
         <v>0</v>
       </c>
-      <c r="C33" s="130"/>
-      <c r="D33" s="131"/>
+      <c r="C33" s="148"/>
+      <c r="D33" s="154"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="95" t="s">
@@ -13562,8 +13566,8 @@
         <f>IF(Tracker!E7=TRUE, "60", "0")</f>
         <v>0</v>
       </c>
-      <c r="C34" s="130"/>
-      <c r="D34" s="131"/>
+      <c r="C34" s="148"/>
+      <c r="D34" s="154"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="95" t="s">
@@ -13573,8 +13577,8 @@
         <f>IF(Tracker!F7=TRUE, "60", "0")</f>
         <v>0</v>
       </c>
-      <c r="C35" s="130"/>
-      <c r="D35" s="131"/>
+      <c r="C35" s="148"/>
+      <c r="D35" s="154"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="95" t="s">
@@ -13584,8 +13588,8 @@
         <f>IF(Tracker!G7=TRUE, "60", "0")</f>
         <v>0</v>
       </c>
-      <c r="C36" s="130"/>
-      <c r="D36" s="131"/>
+      <c r="C36" s="148"/>
+      <c r="D36" s="154"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="95" t="s">
@@ -13595,8 +13599,8 @@
         <f>IF(Tracker!H7=TRUE, "60", "0")</f>
         <v>0</v>
       </c>
-      <c r="C37" s="130"/>
-      <c r="D37" s="131"/>
+      <c r="C37" s="148"/>
+      <c r="D37" s="154"/>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="96" t="s">
@@ -13606,8 +13610,8 @@
         <f>IF(Tracker!I7=TRUE, "60", "0")</f>
         <v>0</v>
       </c>
-      <c r="C38" s="130"/>
-      <c r="D38" s="131"/>
+      <c r="C38" s="148"/>
+      <c r="D38" s="154"/>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="97" t="s">
@@ -13617,8 +13621,8 @@
         <f>IF(Tracker!J7=TRUE, "60", "0")</f>
         <v>0</v>
       </c>
-      <c r="C39" s="132"/>
-      <c r="D39" s="134"/>
+      <c r="C39" s="130"/>
+      <c r="D39" s="132"/>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="77"/>
@@ -13627,12 +13631,12 @@
       <c r="D40" s="78"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="208" t="s">
+      <c r="A41" s="201" t="s">
         <v>84</v>
       </c>
-      <c r="B41" s="209"/>
-      <c r="C41" s="209"/>
-      <c r="D41" s="210"/>
+      <c r="B41" s="202"/>
+      <c r="C41" s="202"/>
+      <c r="D41" s="203"/>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="98" t="s">
@@ -13642,7 +13646,7 @@
         <f>IF(Tracker!C28=TRUE, "20", "0")</f>
         <v>0</v>
       </c>
-      <c r="C42" s="218">
+      <c r="C42" s="206">
         <f>B42+B43+B44</f>
         <v>0</v>
       </c>
@@ -13656,8 +13660,8 @@
         <f>IF(Tracker!C29=TRUE, "20", "0")</f>
         <v>0</v>
       </c>
-      <c r="C43" s="130"/>
-      <c r="D43" s="131"/>
+      <c r="C43" s="148"/>
+      <c r="D43" s="154"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="100" t="s">
@@ -13667,8 +13671,8 @@
         <f>IF(Tracker!C30=TRUE, "20", "0")</f>
         <v>0</v>
       </c>
-      <c r="C44" s="132"/>
-      <c r="D44" s="134"/>
+      <c r="C44" s="130"/>
+      <c r="D44" s="132"/>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="77"/>
@@ -13677,12 +13681,12 @@
       <c r="D45" s="78"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="208" t="s">
+      <c r="A46" s="201" t="s">
         <v>365</v>
       </c>
-      <c r="B46" s="209"/>
-      <c r="C46" s="209"/>
-      <c r="D46" s="210"/>
+      <c r="B46" s="202"/>
+      <c r="C46" s="202"/>
+      <c r="D46" s="203"/>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="101" t="s">
@@ -13692,7 +13696,7 @@
         <f>IF(Tracker!K7=TRUE, "80", "0")</f>
         <v>0</v>
       </c>
-      <c r="C47" s="219">
+      <c r="C47" s="207">
         <f>B47+B48+B49+B50</f>
         <v>0</v>
       </c>
@@ -13706,8 +13710,8 @@
         <f>IF(Tracker!L7=TRUE, "80", "0")</f>
         <v>0</v>
       </c>
-      <c r="C48" s="130"/>
-      <c r="D48" s="131"/>
+      <c r="C48" s="148"/>
+      <c r="D48" s="154"/>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="103" t="s">
@@ -13717,8 +13721,8 @@
         <f>IF(Tracker!M7=TRUE, "80", "0")</f>
         <v>0</v>
       </c>
-      <c r="C49" s="130"/>
-      <c r="D49" s="131"/>
+      <c r="C49" s="148"/>
+      <c r="D49" s="154"/>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="103" t="s">
@@ -13728,8 +13732,8 @@
         <f>IF(Tracker!N7=TRUE, "80", "0")</f>
         <v>0</v>
       </c>
-      <c r="C50" s="132"/>
-      <c r="D50" s="134"/>
+      <c r="C50" s="130"/>
+      <c r="D50" s="132"/>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="77"/>
@@ -13738,12 +13742,12 @@
       <c r="D51" s="78"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="208" t="s">
+      <c r="A52" s="201" t="s">
         <v>366</v>
       </c>
-      <c r="B52" s="209"/>
-      <c r="C52" s="209"/>
-      <c r="D52" s="210"/>
+      <c r="B52" s="202"/>
+      <c r="C52" s="202"/>
+      <c r="D52" s="203"/>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="105" t="s">
@@ -13753,11 +13757,11 @@
         <f>IF(Tracker!O7=TRUE,100,0)</f>
         <v>0</v>
       </c>
-      <c r="C53" s="220">
+      <c r="C53" s="208">
         <f>B53</f>
         <v>0</v>
       </c>
-      <c r="D53" s="210"/>
+      <c r="D53" s="203"/>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="77"/>
@@ -13766,19 +13770,19 @@
       <c r="D54" s="78"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="208" t="s">
+      <c r="A55" s="201" t="s">
         <v>367</v>
       </c>
-      <c r="B55" s="209"/>
-      <c r="C55" s="209"/>
-      <c r="D55" s="210"/>
+      <c r="B55" s="202"/>
+      <c r="C55" s="202"/>
+      <c r="D55" s="203"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="221" t="s">
+      <c r="A56" s="209" t="s">
         <v>368</v>
       </c>
-      <c r="B56" s="170"/>
-      <c r="C56" s="215">
+      <c r="B56" s="139"/>
+      <c r="C56" s="212">
         <f>(B57*-5)+(B58*-10)+(B59*-15)+(B60*-5)+(B61*-10)+(B62*-15)</f>
         <v>0</v>
       </c>
@@ -13792,8 +13796,8 @@
         <f>'Team &amp; Encounters'!C21</f>
         <v>0</v>
       </c>
-      <c r="C57" s="130"/>
-      <c r="D57" s="131"/>
+      <c r="C57" s="148"/>
+      <c r="D57" s="154"/>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="107" t="s">
@@ -13803,8 +13807,8 @@
         <f>'Team &amp; Encounters'!C22</f>
         <v>0</v>
       </c>
-      <c r="C58" s="130"/>
-      <c r="D58" s="131"/>
+      <c r="C58" s="148"/>
+      <c r="D58" s="154"/>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="107" t="s">
@@ -13814,8 +13818,8 @@
         <f>'Team &amp; Encounters'!C23</f>
         <v>0</v>
       </c>
-      <c r="C59" s="130"/>
-      <c r="D59" s="131"/>
+      <c r="C59" s="148"/>
+      <c r="D59" s="154"/>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="107" t="s">
@@ -13825,8 +13829,8 @@
         <f>'Team &amp; Encounters'!E21</f>
         <v>0</v>
       </c>
-      <c r="C60" s="130"/>
-      <c r="D60" s="131"/>
+      <c r="C60" s="148"/>
+      <c r="D60" s="154"/>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="107" t="s">
@@ -13836,8 +13840,8 @@
         <f>'Team &amp; Encounters'!E22</f>
         <v>0</v>
       </c>
-      <c r="C61" s="130"/>
-      <c r="D61" s="131"/>
+      <c r="C61" s="148"/>
+      <c r="D61" s="154"/>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="107" t="s">
@@ -13847,8 +13851,8 @@
         <f>'Team &amp; Encounters'!E23</f>
         <v>0</v>
       </c>
-      <c r="C62" s="132"/>
-      <c r="D62" s="134"/>
+      <c r="C62" s="130"/>
+      <c r="D62" s="132"/>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="77"/>
@@ -13857,19 +13861,19 @@
       <c r="D63" s="78"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="208" t="s">
+      <c r="A64" s="201" t="s">
         <v>375</v>
       </c>
-      <c r="B64" s="209"/>
-      <c r="C64" s="209"/>
-      <c r="D64" s="210"/>
+      <c r="B64" s="202"/>
+      <c r="C64" s="202"/>
+      <c r="D64" s="203"/>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="216" t="s">
+      <c r="A65" s="204" t="s">
         <v>376</v>
       </c>
-      <c r="B65" s="170"/>
-      <c r="C65" s="217">
+      <c r="B65" s="139"/>
+      <c r="C65" s="205">
         <f>(B66*10)+(B67*5)</f>
         <v>0</v>
       </c>
@@ -13883,8 +13887,8 @@
         <f>COUNTIF(Tracker!J13:J70, "F")</f>
         <v>0</v>
       </c>
-      <c r="C66" s="130"/>
-      <c r="D66" s="131"/>
+      <c r="C66" s="148"/>
+      <c r="D66" s="154"/>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="109" t="s">
@@ -13894,11 +13898,26 @@
         <f>COUNTIF(Tracker!J13:J70, "P")</f>
         <v>0</v>
       </c>
-      <c r="C67" s="132"/>
-      <c r="D67" s="134"/>
+      <c r="C67" s="130"/>
+      <c r="D67" s="132"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A1:B4"/>
+    <mergeCell ref="C1:C4"/>
+    <mergeCell ref="D1:D4"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="C16:D22"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="C25:D29"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="C32:D39"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="C56:D62"/>
     <mergeCell ref="A64:D64"/>
     <mergeCell ref="A65:B65"/>
     <mergeCell ref="C65:D67"/>
@@ -13909,21 +13928,6 @@
     <mergeCell ref="C53:D53"/>
     <mergeCell ref="A55:D55"/>
     <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C25:D29"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="C32:D39"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="C56:D62"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="C16:D22"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A1:B4"/>
-    <mergeCell ref="C1:C4"/>
-    <mergeCell ref="D1:D4"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="D6:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -13937,7 +13941,9 @@
   </sheetPr>
   <dimension ref="A1:V68"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:V1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -13964,30 +13970,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="13.15">
-      <c r="A1" s="222" t="s">
+      <c r="A1" s="232" t="s">
         <v>379</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
-      <c r="K1" s="139"/>
-      <c r="L1" s="139"/>
-      <c r="M1" s="139"/>
-      <c r="N1" s="139"/>
-      <c r="O1" s="139"/>
-      <c r="P1" s="139"/>
-      <c r="Q1" s="139"/>
-      <c r="R1" s="139"/>
-      <c r="S1" s="139"/>
-      <c r="T1" s="139"/>
-      <c r="U1" s="139"/>
-      <c r="V1" s="163"/>
+      <c r="B1" s="156"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="156"/>
+      <c r="F1" s="156"/>
+      <c r="G1" s="156"/>
+      <c r="H1" s="156"/>
+      <c r="I1" s="156"/>
+      <c r="J1" s="156"/>
+      <c r="K1" s="156"/>
+      <c r="L1" s="156"/>
+      <c r="M1" s="156"/>
+      <c r="N1" s="156"/>
+      <c r="O1" s="156"/>
+      <c r="P1" s="156"/>
+      <c r="Q1" s="156"/>
+      <c r="R1" s="156"/>
+      <c r="S1" s="156"/>
+      <c r="T1" s="156"/>
+      <c r="U1" s="156"/>
+      <c r="V1" s="134"/>
     </row>
     <row r="2" spans="1:22" ht="75" customHeight="1">
       <c r="A2" s="111" t="e">
@@ -14182,53 +14188,53 @@
       <c r="A6" s="223" t="s">
         <v>386</v>
       </c>
-      <c r="B6" s="139"/>
-      <c r="C6" s="139"/>
-      <c r="D6" s="163"/>
+      <c r="B6" s="156"/>
+      <c r="C6" s="156"/>
+      <c r="D6" s="134"/>
       <c r="E6" s="224"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="139"/>
-      <c r="K6" s="139"/>
-      <c r="L6" s="139"/>
-      <c r="M6" s="139"/>
-      <c r="N6" s="139"/>
-      <c r="O6" s="139"/>
-      <c r="P6" s="139"/>
-      <c r="Q6" s="139"/>
-      <c r="R6" s="139"/>
-      <c r="S6" s="139"/>
-      <c r="T6" s="139"/>
-      <c r="U6" s="139"/>
-      <c r="V6" s="163"/>
+      <c r="F6" s="156"/>
+      <c r="G6" s="156"/>
+      <c r="H6" s="156"/>
+      <c r="I6" s="156"/>
+      <c r="J6" s="156"/>
+      <c r="K6" s="156"/>
+      <c r="L6" s="156"/>
+      <c r="M6" s="156"/>
+      <c r="N6" s="156"/>
+      <c r="O6" s="156"/>
+      <c r="P6" s="156"/>
+      <c r="Q6" s="156"/>
+      <c r="R6" s="156"/>
+      <c r="S6" s="156"/>
+      <c r="T6" s="156"/>
+      <c r="U6" s="156"/>
+      <c r="V6" s="134"/>
     </row>
     <row r="7" spans="1:22" ht="13.15">
-      <c r="A7" s="225" t="s">
+      <c r="A7" s="233" t="s">
         <v>387</v>
       </c>
-      <c r="B7" s="139"/>
-      <c r="C7" s="139"/>
-      <c r="D7" s="139"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139"/>
-      <c r="G7" s="139"/>
-      <c r="H7" s="139"/>
-      <c r="I7" s="139"/>
-      <c r="J7" s="139"/>
-      <c r="K7" s="139"/>
-      <c r="L7" s="139"/>
-      <c r="M7" s="139"/>
-      <c r="N7" s="139"/>
-      <c r="O7" s="139"/>
-      <c r="P7" s="139"/>
-      <c r="Q7" s="139"/>
-      <c r="R7" s="139"/>
-      <c r="S7" s="139"/>
-      <c r="T7" s="139"/>
-      <c r="U7" s="139"/>
-      <c r="V7" s="163"/>
+      <c r="B7" s="156"/>
+      <c r="C7" s="156"/>
+      <c r="D7" s="156"/>
+      <c r="E7" s="156"/>
+      <c r="F7" s="156"/>
+      <c r="G7" s="156"/>
+      <c r="H7" s="156"/>
+      <c r="I7" s="156"/>
+      <c r="J7" s="156"/>
+      <c r="K7" s="156"/>
+      <c r="L7" s="156"/>
+      <c r="M7" s="156"/>
+      <c r="N7" s="156"/>
+      <c r="O7" s="156"/>
+      <c r="P7" s="156"/>
+      <c r="Q7" s="156"/>
+      <c r="R7" s="156"/>
+      <c r="S7" s="156"/>
+      <c r="T7" s="156"/>
+      <c r="U7" s="156"/>
+      <c r="V7" s="134"/>
     </row>
     <row r="8" spans="1:22" ht="75" customHeight="1">
       <c r="A8" s="111" t="e">
@@ -14446,53 +14452,53 @@
       <c r="A12" s="223" t="s">
         <v>397</v>
       </c>
-      <c r="B12" s="139"/>
-      <c r="C12" s="139"/>
-      <c r="D12" s="163"/>
+      <c r="B12" s="156"/>
+      <c r="C12" s="156"/>
+      <c r="D12" s="134"/>
       <c r="E12" s="224"/>
-      <c r="F12" s="139"/>
-      <c r="G12" s="139"/>
-      <c r="H12" s="139"/>
-      <c r="I12" s="139"/>
-      <c r="J12" s="139"/>
-      <c r="K12" s="139"/>
-      <c r="L12" s="139"/>
-      <c r="M12" s="139"/>
-      <c r="N12" s="139"/>
-      <c r="O12" s="139"/>
-      <c r="P12" s="139"/>
-      <c r="Q12" s="139"/>
-      <c r="R12" s="139"/>
-      <c r="S12" s="139"/>
-      <c r="T12" s="139"/>
-      <c r="U12" s="139"/>
-      <c r="V12" s="163"/>
+      <c r="F12" s="156"/>
+      <c r="G12" s="156"/>
+      <c r="H12" s="156"/>
+      <c r="I12" s="156"/>
+      <c r="J12" s="156"/>
+      <c r="K12" s="156"/>
+      <c r="L12" s="156"/>
+      <c r="M12" s="156"/>
+      <c r="N12" s="156"/>
+      <c r="O12" s="156"/>
+      <c r="P12" s="156"/>
+      <c r="Q12" s="156"/>
+      <c r="R12" s="156"/>
+      <c r="S12" s="156"/>
+      <c r="T12" s="156"/>
+      <c r="U12" s="156"/>
+      <c r="V12" s="134"/>
     </row>
     <row r="13" spans="1:22" ht="12.75">
-      <c r="A13" s="226" t="s">
+      <c r="A13" s="230" t="s">
         <v>398</v>
       </c>
-      <c r="B13" s="139"/>
-      <c r="C13" s="139"/>
-      <c r="D13" s="139"/>
-      <c r="E13" s="139"/>
-      <c r="F13" s="139"/>
-      <c r="G13" s="139"/>
-      <c r="H13" s="139"/>
-      <c r="I13" s="139"/>
-      <c r="J13" s="139"/>
-      <c r="K13" s="139"/>
-      <c r="L13" s="139"/>
-      <c r="M13" s="139"/>
-      <c r="N13" s="139"/>
-      <c r="O13" s="139"/>
-      <c r="P13" s="139"/>
-      <c r="Q13" s="139"/>
-      <c r="R13" s="139"/>
-      <c r="S13" s="139"/>
-      <c r="T13" s="139"/>
-      <c r="U13" s="139"/>
-      <c r="V13" s="163"/>
+      <c r="B13" s="156"/>
+      <c r="C13" s="156"/>
+      <c r="D13" s="156"/>
+      <c r="E13" s="156"/>
+      <c r="F13" s="156"/>
+      <c r="G13" s="156"/>
+      <c r="H13" s="156"/>
+      <c r="I13" s="156"/>
+      <c r="J13" s="156"/>
+      <c r="K13" s="156"/>
+      <c r="L13" s="156"/>
+      <c r="M13" s="156"/>
+      <c r="N13" s="156"/>
+      <c r="O13" s="156"/>
+      <c r="P13" s="156"/>
+      <c r="Q13" s="156"/>
+      <c r="R13" s="156"/>
+      <c r="S13" s="156"/>
+      <c r="T13" s="156"/>
+      <c r="U13" s="156"/>
+      <c r="V13" s="134"/>
     </row>
     <row r="14" spans="1:22" ht="75" customHeight="1">
       <c r="A14" s="117" t="e">
@@ -14648,30 +14654,30 @@
       <c r="A17" s="223" t="s">
         <v>405</v>
       </c>
-      <c r="B17" s="139"/>
-      <c r="C17" s="139"/>
-      <c r="D17" s="163"/>
+      <c r="B17" s="156"/>
+      <c r="C17" s="156"/>
+      <c r="D17" s="134"/>
       <c r="E17" s="224"/>
-      <c r="F17" s="139"/>
-      <c r="G17" s="139"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="139"/>
-      <c r="J17" s="139"/>
-      <c r="K17" s="139"/>
-      <c r="L17" s="139"/>
-      <c r="M17" s="139"/>
-      <c r="N17" s="139"/>
-      <c r="O17" s="139"/>
-      <c r="P17" s="139"/>
-      <c r="Q17" s="139"/>
-      <c r="R17" s="139"/>
-      <c r="S17" s="139"/>
-      <c r="T17" s="139"/>
-      <c r="U17" s="139"/>
-      <c r="V17" s="163"/>
+      <c r="F17" s="156"/>
+      <c r="G17" s="156"/>
+      <c r="H17" s="156"/>
+      <c r="I17" s="156"/>
+      <c r="J17" s="156"/>
+      <c r="K17" s="156"/>
+      <c r="L17" s="156"/>
+      <c r="M17" s="156"/>
+      <c r="N17" s="156"/>
+      <c r="O17" s="156"/>
+      <c r="P17" s="156"/>
+      <c r="Q17" s="156"/>
+      <c r="R17" s="156"/>
+      <c r="S17" s="156"/>
+      <c r="T17" s="156"/>
+      <c r="U17" s="156"/>
+      <c r="V17" s="134"/>
     </row>
     <row r="18" spans="1:22" ht="12.75">
-      <c r="A18" s="227" t="s">
+      <c r="A18" s="231" t="s">
         <v>406</v>
       </c>
       <c r="B18" s="122"/>
@@ -14984,53 +14990,53 @@
       <c r="A24" s="223" t="s">
         <v>419</v>
       </c>
-      <c r="B24" s="139"/>
-      <c r="C24" s="139"/>
-      <c r="D24" s="163"/>
+      <c r="B24" s="156"/>
+      <c r="C24" s="156"/>
+      <c r="D24" s="134"/>
       <c r="E24" s="224"/>
-      <c r="F24" s="139"/>
-      <c r="G24" s="139"/>
-      <c r="H24" s="139"/>
-      <c r="I24" s="139"/>
-      <c r="J24" s="139"/>
-      <c r="K24" s="139"/>
-      <c r="L24" s="139"/>
-      <c r="M24" s="139"/>
-      <c r="N24" s="139"/>
-      <c r="O24" s="139"/>
-      <c r="P24" s="139"/>
-      <c r="Q24" s="139"/>
-      <c r="R24" s="139"/>
-      <c r="S24" s="139"/>
-      <c r="T24" s="139"/>
-      <c r="U24" s="139"/>
-      <c r="V24" s="163"/>
+      <c r="F24" s="156"/>
+      <c r="G24" s="156"/>
+      <c r="H24" s="156"/>
+      <c r="I24" s="156"/>
+      <c r="J24" s="156"/>
+      <c r="K24" s="156"/>
+      <c r="L24" s="156"/>
+      <c r="M24" s="156"/>
+      <c r="N24" s="156"/>
+      <c r="O24" s="156"/>
+      <c r="P24" s="156"/>
+      <c r="Q24" s="156"/>
+      <c r="R24" s="156"/>
+      <c r="S24" s="156"/>
+      <c r="T24" s="156"/>
+      <c r="U24" s="156"/>
+      <c r="V24" s="134"/>
     </row>
     <row r="25" spans="1:22" ht="12.75">
-      <c r="A25" s="228" t="s">
+      <c r="A25" s="222" t="s">
         <v>420</v>
       </c>
-      <c r="B25" s="139"/>
-      <c r="C25" s="139"/>
-      <c r="D25" s="139"/>
-      <c r="E25" s="139"/>
-      <c r="F25" s="139"/>
-      <c r="G25" s="139"/>
-      <c r="H25" s="139"/>
-      <c r="I25" s="139"/>
-      <c r="J25" s="139"/>
-      <c r="K25" s="139"/>
-      <c r="L25" s="139"/>
-      <c r="M25" s="139"/>
-      <c r="N25" s="139"/>
-      <c r="O25" s="139"/>
-      <c r="P25" s="139"/>
-      <c r="Q25" s="139"/>
-      <c r="R25" s="139"/>
-      <c r="S25" s="139"/>
-      <c r="T25" s="139"/>
-      <c r="U25" s="139"/>
-      <c r="V25" s="163"/>
+      <c r="B25" s="156"/>
+      <c r="C25" s="156"/>
+      <c r="D25" s="156"/>
+      <c r="E25" s="156"/>
+      <c r="F25" s="156"/>
+      <c r="G25" s="156"/>
+      <c r="H25" s="156"/>
+      <c r="I25" s="156"/>
+      <c r="J25" s="156"/>
+      <c r="K25" s="156"/>
+      <c r="L25" s="156"/>
+      <c r="M25" s="156"/>
+      <c r="N25" s="156"/>
+      <c r="O25" s="156"/>
+      <c r="P25" s="156"/>
+      <c r="Q25" s="156"/>
+      <c r="R25" s="156"/>
+      <c r="S25" s="156"/>
+      <c r="T25" s="156"/>
+      <c r="U25" s="156"/>
+      <c r="V25" s="134"/>
     </row>
     <row r="26" spans="1:22" ht="75" customHeight="1">
       <c r="A26" s="117" t="e">
@@ -15288,53 +15294,53 @@
       <c r="A31" s="223" t="s">
         <v>425</v>
       </c>
-      <c r="B31" s="139"/>
-      <c r="C31" s="139"/>
-      <c r="D31" s="163"/>
+      <c r="B31" s="156"/>
+      <c r="C31" s="156"/>
+      <c r="D31" s="134"/>
       <c r="E31" s="224"/>
-      <c r="F31" s="139"/>
-      <c r="G31" s="139"/>
-      <c r="H31" s="139"/>
-      <c r="I31" s="139"/>
-      <c r="J31" s="139"/>
-      <c r="K31" s="139"/>
-      <c r="L31" s="139"/>
-      <c r="M31" s="139"/>
-      <c r="N31" s="139"/>
-      <c r="O31" s="139"/>
-      <c r="P31" s="139"/>
-      <c r="Q31" s="139"/>
-      <c r="R31" s="139"/>
-      <c r="S31" s="139"/>
-      <c r="T31" s="139"/>
-      <c r="U31" s="139"/>
-      <c r="V31" s="163"/>
+      <c r="F31" s="156"/>
+      <c r="G31" s="156"/>
+      <c r="H31" s="156"/>
+      <c r="I31" s="156"/>
+      <c r="J31" s="156"/>
+      <c r="K31" s="156"/>
+      <c r="L31" s="156"/>
+      <c r="M31" s="156"/>
+      <c r="N31" s="156"/>
+      <c r="O31" s="156"/>
+      <c r="P31" s="156"/>
+      <c r="Q31" s="156"/>
+      <c r="R31" s="156"/>
+      <c r="S31" s="156"/>
+      <c r="T31" s="156"/>
+      <c r="U31" s="156"/>
+      <c r="V31" s="134"/>
     </row>
     <row r="32" spans="1:22" ht="12.75">
-      <c r="A32" s="231" t="s">
+      <c r="A32" s="227" t="s">
         <v>426</v>
       </c>
-      <c r="B32" s="139"/>
-      <c r="C32" s="139"/>
-      <c r="D32" s="139"/>
-      <c r="E32" s="139"/>
-      <c r="F32" s="139"/>
-      <c r="G32" s="139"/>
-      <c r="H32" s="139"/>
-      <c r="I32" s="139"/>
-      <c r="J32" s="139"/>
-      <c r="K32" s="139"/>
-      <c r="L32" s="139"/>
-      <c r="M32" s="139"/>
-      <c r="N32" s="139"/>
-      <c r="O32" s="139"/>
-      <c r="P32" s="139"/>
-      <c r="Q32" s="139"/>
-      <c r="R32" s="139"/>
-      <c r="S32" s="139"/>
-      <c r="T32" s="139"/>
-      <c r="U32" s="139"/>
-      <c r="V32" s="163"/>
+      <c r="B32" s="156"/>
+      <c r="C32" s="156"/>
+      <c r="D32" s="156"/>
+      <c r="E32" s="156"/>
+      <c r="F32" s="156"/>
+      <c r="G32" s="156"/>
+      <c r="H32" s="156"/>
+      <c r="I32" s="156"/>
+      <c r="J32" s="156"/>
+      <c r="K32" s="156"/>
+      <c r="L32" s="156"/>
+      <c r="M32" s="156"/>
+      <c r="N32" s="156"/>
+      <c r="O32" s="156"/>
+      <c r="P32" s="156"/>
+      <c r="Q32" s="156"/>
+      <c r="R32" s="156"/>
+      <c r="S32" s="156"/>
+      <c r="T32" s="156"/>
+      <c r="U32" s="156"/>
+      <c r="V32" s="134"/>
     </row>
     <row r="33" spans="1:22" ht="75" customHeight="1">
       <c r="A33" s="117" t="e">
@@ -15537,53 +15543,53 @@
       <c r="A37" s="223" t="s">
         <v>433</v>
       </c>
-      <c r="B37" s="139"/>
-      <c r="C37" s="139"/>
-      <c r="D37" s="163"/>
+      <c r="B37" s="156"/>
+      <c r="C37" s="156"/>
+      <c r="D37" s="134"/>
       <c r="E37" s="224"/>
-      <c r="F37" s="139"/>
-      <c r="G37" s="139"/>
-      <c r="H37" s="139"/>
-      <c r="I37" s="139"/>
-      <c r="J37" s="139"/>
-      <c r="K37" s="139"/>
-      <c r="L37" s="139"/>
-      <c r="M37" s="139"/>
-      <c r="N37" s="139"/>
-      <c r="O37" s="139"/>
-      <c r="P37" s="139"/>
-      <c r="Q37" s="139"/>
-      <c r="R37" s="139"/>
-      <c r="S37" s="139"/>
-      <c r="T37" s="139"/>
-      <c r="U37" s="139"/>
-      <c r="V37" s="163"/>
+      <c r="F37" s="156"/>
+      <c r="G37" s="156"/>
+      <c r="H37" s="156"/>
+      <c r="I37" s="156"/>
+      <c r="J37" s="156"/>
+      <c r="K37" s="156"/>
+      <c r="L37" s="156"/>
+      <c r="M37" s="156"/>
+      <c r="N37" s="156"/>
+      <c r="O37" s="156"/>
+      <c r="P37" s="156"/>
+      <c r="Q37" s="156"/>
+      <c r="R37" s="156"/>
+      <c r="S37" s="156"/>
+      <c r="T37" s="156"/>
+      <c r="U37" s="156"/>
+      <c r="V37" s="134"/>
     </row>
     <row r="38" spans="1:22" ht="12.75">
-      <c r="A38" s="232" t="s">
+      <c r="A38" s="228" t="s">
         <v>434</v>
       </c>
-      <c r="B38" s="139"/>
-      <c r="C38" s="139"/>
-      <c r="D38" s="139"/>
-      <c r="E38" s="139"/>
-      <c r="F38" s="139"/>
-      <c r="G38" s="139"/>
-      <c r="H38" s="139"/>
-      <c r="I38" s="139"/>
-      <c r="J38" s="139"/>
-      <c r="K38" s="139"/>
-      <c r="L38" s="139"/>
-      <c r="M38" s="139"/>
-      <c r="N38" s="139"/>
-      <c r="O38" s="139"/>
-      <c r="P38" s="139"/>
-      <c r="Q38" s="139"/>
-      <c r="R38" s="139"/>
-      <c r="S38" s="139"/>
-      <c r="T38" s="139"/>
-      <c r="U38" s="139"/>
-      <c r="V38" s="163"/>
+      <c r="B38" s="156"/>
+      <c r="C38" s="156"/>
+      <c r="D38" s="156"/>
+      <c r="E38" s="156"/>
+      <c r="F38" s="156"/>
+      <c r="G38" s="156"/>
+      <c r="H38" s="156"/>
+      <c r="I38" s="156"/>
+      <c r="J38" s="156"/>
+      <c r="K38" s="156"/>
+      <c r="L38" s="156"/>
+      <c r="M38" s="156"/>
+      <c r="N38" s="156"/>
+      <c r="O38" s="156"/>
+      <c r="P38" s="156"/>
+      <c r="Q38" s="156"/>
+      <c r="R38" s="156"/>
+      <c r="S38" s="156"/>
+      <c r="T38" s="156"/>
+      <c r="U38" s="156"/>
+      <c r="V38" s="134"/>
     </row>
     <row r="39" spans="1:22" ht="75" customHeight="1">
       <c r="A39" s="117" t="e">
@@ -15810,53 +15816,53 @@
       <c r="A43" s="223" t="s">
         <v>442</v>
       </c>
-      <c r="B43" s="139"/>
-      <c r="C43" s="139"/>
-      <c r="D43" s="163"/>
+      <c r="B43" s="156"/>
+      <c r="C43" s="156"/>
+      <c r="D43" s="134"/>
       <c r="E43" s="224"/>
-      <c r="F43" s="139"/>
-      <c r="G43" s="139"/>
-      <c r="H43" s="139"/>
-      <c r="I43" s="139"/>
-      <c r="J43" s="139"/>
-      <c r="K43" s="139"/>
-      <c r="L43" s="139"/>
-      <c r="M43" s="139"/>
-      <c r="N43" s="139"/>
-      <c r="O43" s="139"/>
-      <c r="P43" s="139"/>
-      <c r="Q43" s="139"/>
-      <c r="R43" s="139"/>
-      <c r="S43" s="139"/>
-      <c r="T43" s="139"/>
-      <c r="U43" s="139"/>
-      <c r="V43" s="163"/>
+      <c r="F43" s="156"/>
+      <c r="G43" s="156"/>
+      <c r="H43" s="156"/>
+      <c r="I43" s="156"/>
+      <c r="J43" s="156"/>
+      <c r="K43" s="156"/>
+      <c r="L43" s="156"/>
+      <c r="M43" s="156"/>
+      <c r="N43" s="156"/>
+      <c r="O43" s="156"/>
+      <c r="P43" s="156"/>
+      <c r="Q43" s="156"/>
+      <c r="R43" s="156"/>
+      <c r="S43" s="156"/>
+      <c r="T43" s="156"/>
+      <c r="U43" s="156"/>
+      <c r="V43" s="134"/>
     </row>
     <row r="44" spans="1:22" ht="12.75">
-      <c r="A44" s="233" t="s">
+      <c r="A44" s="229" t="s">
         <v>443</v>
       </c>
-      <c r="B44" s="139"/>
-      <c r="C44" s="139"/>
-      <c r="D44" s="139"/>
-      <c r="E44" s="139"/>
-      <c r="F44" s="139"/>
-      <c r="G44" s="139"/>
-      <c r="H44" s="139"/>
-      <c r="I44" s="139"/>
-      <c r="J44" s="139"/>
-      <c r="K44" s="139"/>
-      <c r="L44" s="139"/>
-      <c r="M44" s="139"/>
-      <c r="N44" s="139"/>
-      <c r="O44" s="139"/>
-      <c r="P44" s="139"/>
-      <c r="Q44" s="139"/>
-      <c r="R44" s="139"/>
-      <c r="S44" s="139"/>
-      <c r="T44" s="139"/>
-      <c r="U44" s="139"/>
-      <c r="V44" s="163"/>
+      <c r="B44" s="156"/>
+      <c r="C44" s="156"/>
+      <c r="D44" s="156"/>
+      <c r="E44" s="156"/>
+      <c r="F44" s="156"/>
+      <c r="G44" s="156"/>
+      <c r="H44" s="156"/>
+      <c r="I44" s="156"/>
+      <c r="J44" s="156"/>
+      <c r="K44" s="156"/>
+      <c r="L44" s="156"/>
+      <c r="M44" s="156"/>
+      <c r="N44" s="156"/>
+      <c r="O44" s="156"/>
+      <c r="P44" s="156"/>
+      <c r="Q44" s="156"/>
+      <c r="R44" s="156"/>
+      <c r="S44" s="156"/>
+      <c r="T44" s="156"/>
+      <c r="U44" s="156"/>
+      <c r="V44" s="134"/>
     </row>
     <row r="45" spans="1:22" ht="75" customHeight="1">
       <c r="A45" s="117" t="e">
@@ -16222,53 +16228,53 @@
       <c r="A52" s="223" t="s">
         <v>450</v>
       </c>
-      <c r="B52" s="139"/>
-      <c r="C52" s="139"/>
-      <c r="D52" s="163"/>
+      <c r="B52" s="156"/>
+      <c r="C52" s="156"/>
+      <c r="D52" s="134"/>
       <c r="E52" s="224"/>
-      <c r="F52" s="139"/>
-      <c r="G52" s="139"/>
-      <c r="H52" s="139"/>
-      <c r="I52" s="139"/>
-      <c r="J52" s="139"/>
-      <c r="K52" s="139"/>
-      <c r="L52" s="139"/>
-      <c r="M52" s="139"/>
-      <c r="N52" s="139"/>
-      <c r="O52" s="139"/>
-      <c r="P52" s="139"/>
-      <c r="Q52" s="139"/>
-      <c r="R52" s="139"/>
-      <c r="S52" s="139"/>
-      <c r="T52" s="139"/>
-      <c r="U52" s="139"/>
-      <c r="V52" s="163"/>
+      <c r="F52" s="156"/>
+      <c r="G52" s="156"/>
+      <c r="H52" s="156"/>
+      <c r="I52" s="156"/>
+      <c r="J52" s="156"/>
+      <c r="K52" s="156"/>
+      <c r="L52" s="156"/>
+      <c r="M52" s="156"/>
+      <c r="N52" s="156"/>
+      <c r="O52" s="156"/>
+      <c r="P52" s="156"/>
+      <c r="Q52" s="156"/>
+      <c r="R52" s="156"/>
+      <c r="S52" s="156"/>
+      <c r="T52" s="156"/>
+      <c r="U52" s="156"/>
+      <c r="V52" s="134"/>
     </row>
     <row r="53" spans="1:22" ht="12.75">
-      <c r="A53" s="229" t="s">
+      <c r="A53" s="225" t="s">
         <v>451</v>
       </c>
-      <c r="B53" s="139"/>
-      <c r="C53" s="139"/>
-      <c r="D53" s="139"/>
-      <c r="E53" s="139"/>
-      <c r="F53" s="139"/>
-      <c r="G53" s="139"/>
-      <c r="H53" s="139"/>
-      <c r="I53" s="139"/>
-      <c r="J53" s="139"/>
-      <c r="K53" s="139"/>
-      <c r="L53" s="139"/>
-      <c r="M53" s="139"/>
-      <c r="N53" s="139"/>
-      <c r="O53" s="139"/>
-      <c r="P53" s="139"/>
-      <c r="Q53" s="139"/>
-      <c r="R53" s="139"/>
-      <c r="S53" s="139"/>
-      <c r="T53" s="139"/>
-      <c r="U53" s="139"/>
-      <c r="V53" s="163"/>
+      <c r="B53" s="156"/>
+      <c r="C53" s="156"/>
+      <c r="D53" s="156"/>
+      <c r="E53" s="156"/>
+      <c r="F53" s="156"/>
+      <c r="G53" s="156"/>
+      <c r="H53" s="156"/>
+      <c r="I53" s="156"/>
+      <c r="J53" s="156"/>
+      <c r="K53" s="156"/>
+      <c r="L53" s="156"/>
+      <c r="M53" s="156"/>
+      <c r="N53" s="156"/>
+      <c r="O53" s="156"/>
+      <c r="P53" s="156"/>
+      <c r="Q53" s="156"/>
+      <c r="R53" s="156"/>
+      <c r="S53" s="156"/>
+      <c r="T53" s="156"/>
+      <c r="U53" s="156"/>
+      <c r="V53" s="134"/>
     </row>
     <row r="54" spans="1:22" ht="75" customHeight="1">
       <c r="A54" s="117" t="e">
@@ -16997,32 +17003,44 @@
       <c r="A68" s="223" t="s">
         <v>477</v>
       </c>
-      <c r="B68" s="139"/>
-      <c r="C68" s="139"/>
-      <c r="D68" s="163"/>
-      <c r="E68" s="230" t="s">
+      <c r="B68" s="156"/>
+      <c r="C68" s="156"/>
+      <c r="D68" s="134"/>
+      <c r="E68" s="226" t="s">
         <v>478</v>
       </c>
-      <c r="F68" s="139"/>
-      <c r="G68" s="139"/>
-      <c r="H68" s="139"/>
-      <c r="I68" s="139"/>
-      <c r="J68" s="139"/>
-      <c r="K68" s="139"/>
-      <c r="L68" s="139"/>
-      <c r="M68" s="139"/>
-      <c r="N68" s="139"/>
-      <c r="O68" s="139"/>
-      <c r="P68" s="139"/>
-      <c r="Q68" s="139"/>
-      <c r="R68" s="139"/>
-      <c r="S68" s="139"/>
-      <c r="T68" s="139"/>
-      <c r="U68" s="139"/>
-      <c r="V68" s="163"/>
+      <c r="F68" s="156"/>
+      <c r="G68" s="156"/>
+      <c r="H68" s="156"/>
+      <c r="I68" s="156"/>
+      <c r="J68" s="156"/>
+      <c r="K68" s="156"/>
+      <c r="L68" s="156"/>
+      <c r="M68" s="156"/>
+      <c r="N68" s="156"/>
+      <c r="O68" s="156"/>
+      <c r="P68" s="156"/>
+      <c r="Q68" s="156"/>
+      <c r="R68" s="156"/>
+      <c r="S68" s="156"/>
+      <c r="T68" s="156"/>
+      <c r="U68" s="156"/>
+      <c r="V68" s="134"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E6:V6"/>
+    <mergeCell ref="A7:V7"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="E12:V12"/>
+    <mergeCell ref="A13:V13"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:V17"/>
+    <mergeCell ref="A18:V18"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="E24:V24"/>
     <mergeCell ref="A25:V25"/>
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="A43:D43"/>
@@ -17038,18 +17056,6 @@
     <mergeCell ref="A38:V38"/>
     <mergeCell ref="E43:V43"/>
     <mergeCell ref="A44:V44"/>
-    <mergeCell ref="A13:V13"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:V17"/>
-    <mergeCell ref="A18:V18"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="E24:V24"/>
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="E6:V6"/>
-    <mergeCell ref="A7:V7"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="E12:V12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
